--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_2_23.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_2_23.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>878095.9084883142</v>
+        <v>916175.0641245048</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>18157355.41581893</v>
+        <v>16877859.47655641</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2113478.654365225</v>
+        <v>1396887.814324549</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6816255.937140646</v>
+        <v>7083506.117508058</v>
       </c>
     </row>
     <row r="11">
@@ -656,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>22.03657478005869</v>
+        <v>137.4069445828598</v>
       </c>
       <c r="C2" t="n">
         <v>433.7610480884109</v>
@@ -668,10 +670,10 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F2" t="n">
-        <v>262.2885047876848</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -707,13 +709,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -725,7 +727,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y2" t="n">
-        <v>4.203262463343094</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="3">
@@ -820,7 +822,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D4" t="n">
-        <v>79.58540461744431</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E4" t="n">
         <v>168.0604237117701</v>
@@ -829,10 +831,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I4" t="n">
         <v>87.77334973307141</v>
@@ -865,10 +867,10 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S4" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>243.4206519573293</v>
+        <v>13.99728392830462</v>
       </c>
       <c r="U4" t="n">
         <v>275.6486707394257</v>
@@ -893,28 +895,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>83.87898885165517</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C5" t="n">
-        <v>33.76104808841092</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D5" t="n">
-        <v>31.5506869772999</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E5" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F5" t="n">
-        <v>23.58875529488432</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,16 +946,16 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T5" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>400.806900043077</v>
@@ -962,7 +964,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y5" t="n">
-        <v>404.2032624633431</v>
+        <v>119.1610107870122</v>
       </c>
     </row>
     <row r="6">
@@ -1051,19 +1053,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>170.8360944016073</v>
       </c>
       <c r="D7" t="n">
-        <v>120.147297036116</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G7" t="n">
         <v>163.9353622244306</v>
@@ -1108,7 +1110,7 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U7" t="n">
-        <v>275.6486707394257</v>
+        <v>78.47678022721499</v>
       </c>
       <c r="V7" t="n">
         <v>284.0859530482738</v>
@@ -1136,22 +1138,22 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D8" t="n">
-        <v>31.5506869772999</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E8" t="n">
-        <v>124.7668265422409</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F8" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1184,19 +1186,19 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>400.806900043077</v>
+        <v>0.8069000430770075</v>
       </c>
       <c r="X8" t="n">
-        <v>414.9510387864824</v>
+        <v>138.2275076763079</v>
       </c>
       <c r="Y8" t="n">
         <v>404.2032624633431</v>
@@ -1306,7 +1308,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I10" t="n">
         <v>87.77334973307141</v>
@@ -1336,19 +1338,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S10" t="n">
         <v>157.6489550149833</v>
       </c>
       <c r="T10" t="n">
-        <v>16.05512456153268</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>275.6486707394257</v>
       </c>
       <c r="V10" t="n">
-        <v>284.0859530482738</v>
+        <v>140.4342819615948</v>
       </c>
       <c r="W10" t="n">
         <v>269.3061403695714</v>
@@ -1367,25 +1369,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>422.0365747800587</v>
+        <v>394.1469673339583</v>
       </c>
       <c r="C11" t="n">
         <v>433.7610480884109</v>
       </c>
       <c r="D11" t="n">
-        <v>78.55453744554954</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1418,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>358.9907805655117</v>
@@ -1436,7 +1438,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1546,7 +1548,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I13" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1579,10 +1581,10 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>243.4206519573293</v>
+        <v>122.9742767430576</v>
       </c>
       <c r="U13" t="n">
-        <v>67.42894579208335</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V13" t="n">
         <v>284.0859530482738</v>
@@ -1604,22 +1606,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>247.7785710771141</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D14" t="n">
         <v>431.5506869772999</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G14" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1664,7 +1666,7 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>358.9907805655117</v>
+        <v>195.569577943771</v>
       </c>
       <c r="W14" t="n">
         <v>400.806900043077</v>
@@ -1777,13 +1779,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G16" t="n">
-        <v>163.9353622244306</v>
+        <v>24.34318456170461</v>
       </c>
       <c r="H16" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1813,13 +1815,13 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T16" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U16" t="n">
-        <v>67.42894579208335</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V16" t="n">
         <v>284.0859530482738</v>
@@ -2002,13 +2004,13 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C19" t="n">
-        <v>170.8360944016073</v>
+        <v>39.5975448024402</v>
       </c>
       <c r="D19" t="n">
         <v>164.2192128704925</v>
       </c>
       <c r="E19" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>174.9399834978613</v>
@@ -2020,7 +2022,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I19" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,10 +2052,10 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T19" t="n">
-        <v>13.99728392830417</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U19" t="n">
         <v>275.6486707394257</v>
@@ -2129,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>82.81535507800233</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T20" t="n">
         <v>217.8665548556918</v>
@@ -2138,7 +2140,7 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V20" t="n">
-        <v>358.9907805655117</v>
+        <v>358.9907805655127</v>
       </c>
       <c r="W20" t="n">
         <v>400.806900043077</v>
@@ -2254,10 +2256,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,19 +2286,19 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S22" t="n">
-        <v>18.05677735225751</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T22" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U22" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>284.0859530482738</v>
+        <v>172.6623007436922</v>
       </c>
       <c r="W22" t="n">
         <v>269.3061403695714</v>
@@ -2491,10 +2493,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H25" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2524,10 +2526,10 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>18.05677735225796</v>
       </c>
       <c r="T25" t="n">
-        <v>35.20092700998597</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U25" t="n">
         <v>275.6486707394257</v>
@@ -2962,13 +2964,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G31" t="n">
-        <v>3.139541480022588</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>157.6489550149833</v>
@@ -3004,10 +3006,10 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U31" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>284.0859530482738</v>
+        <v>193.8659438253727</v>
       </c>
       <c r="W31" t="n">
         <v>269.3061403695714</v>
@@ -3202,10 +3204,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,16 +3234,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S34" t="n">
         <v>157.6489550149833</v>
       </c>
       <c r="T34" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>136.0564930766999</v>
+        <v>131.9969996527466</v>
       </c>
       <c r="V34" t="n">
         <v>284.0859530482738</v>
@@ -3427,22 +3429,22 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E37" t="n">
         <v>168.0604237117701</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G37" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H37" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3472,7 +3474,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>130.9394714210106</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T37" t="n">
         <v>243.4206519573293</v>
@@ -3554,7 +3556,7 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T38" t="n">
-        <v>217.8665548556918</v>
+        <v>217.8665548556926</v>
       </c>
       <c r="U38" t="n">
         <v>256.6300796561533</v>
@@ -3566,7 +3568,7 @@
         <v>400.806900043077</v>
       </c>
       <c r="X38" t="n">
-        <v>414.9510387864836</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y38" t="n">
         <v>404.2032624633431</v>
@@ -3679,7 +3681,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3712,7 +3714,7 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>122.9742767430576</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U40" t="n">
         <v>275.6486707394257</v>
@@ -3721,7 +3723,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W40" t="n">
-        <v>269.3061403695714</v>
+        <v>61.08641542222974</v>
       </c>
       <c r="X40" t="n">
         <v>242.9378371199217</v>
@@ -3740,25 +3742,25 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C41" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F41" t="n">
-        <v>423.5887552948843</v>
+        <v>371.5632096161683</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I41" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3791,22 +3793,22 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X41" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y41" t="n">
-        <v>99.92737017624191</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3907,13 +3909,13 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F43" t="n">
-        <v>35.34780583513581</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G43" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>18.0567773522574</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3946,7 +3948,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>243.4206519573293</v>
@@ -3974,28 +3976,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C44" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>431.5506869772999</v>
       </c>
       <c r="E44" t="n">
-        <v>429.4369973932878</v>
+        <v>420.3573992491162</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I44" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4034,7 +4036,7 @@
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>140.5425377447652</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W44" t="n">
         <v>400.806900043077</v>
@@ -4043,7 +4045,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y44" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4141,13 +4143,13 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G46" t="n">
-        <v>119.8634463900541</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H46" t="n">
         <v>138.5031525665292</v>
@@ -4189,10 +4191,10 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U46" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>284.0859530482738</v>
+        <v>172.6623007436913</v>
       </c>
       <c r="W46" t="n">
         <v>269.3061403695714</v>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1627.509579840513</v>
+        <v>2210.394775134949</v>
       </c>
       <c r="C2" t="n">
-        <v>1189.367107023936</v>
+        <v>1772.252302318372</v>
       </c>
       <c r="D2" t="n">
-        <v>753.4573221983808</v>
+        <v>1336.342517492816</v>
       </c>
       <c r="E2" t="n">
-        <v>319.6825773566759</v>
+        <v>902.5677726511115</v>
       </c>
       <c r="F2" t="n">
-        <v>54.74469373275195</v>
+        <v>474.7003430603192</v>
       </c>
       <c r="G2" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358309</v>
       </c>
       <c r="H2" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358309</v>
       </c>
       <c r="I2" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358309</v>
       </c>
       <c r="J2" t="n">
-        <v>489.9993811856698</v>
+        <v>508.557199136501</v>
       </c>
       <c r="K2" t="n">
-        <v>1167.464966128475</v>
+        <v>1342.907491094679</v>
       </c>
       <c r="L2" t="n">
-        <v>1344.116250983141</v>
+        <v>1342.907491094679</v>
       </c>
       <c r="M2" t="n">
-        <v>1344.116250983141</v>
+        <v>1342.907491094679</v>
       </c>
       <c r="N2" t="n">
-        <v>1344.116250983141</v>
+        <v>2121.162858634106</v>
       </c>
       <c r="O2" t="n">
-        <v>1344.116250983141</v>
+        <v>2121.162858634106</v>
       </c>
       <c r="P2" t="n">
-        <v>2021.581835925947</v>
+        <v>2949.472733467503</v>
       </c>
       <c r="Q2" t="n">
-        <v>2568.080621884541</v>
+        <v>3495.971519426098</v>
       </c>
       <c r="R2" t="n">
-        <v>2737.234686637598</v>
+        <v>3665.125584179154</v>
       </c>
       <c r="S2" t="n">
-        <v>2737.234686637598</v>
+        <v>3581.473710362991</v>
       </c>
       <c r="T2" t="n">
-        <v>2737.234686637598</v>
+        <v>3581.473710362991</v>
       </c>
       <c r="U2" t="n">
-        <v>2478.012383954615</v>
+        <v>3581.473710362991</v>
       </c>
       <c r="V2" t="n">
-        <v>2478.012383954615</v>
+        <v>3581.473710362991</v>
       </c>
       <c r="W2" t="n">
-        <v>2073.156929365648</v>
+        <v>3176.618255774025</v>
       </c>
       <c r="X2" t="n">
-        <v>1654.014465944959</v>
+        <v>2757.475792353336</v>
       </c>
       <c r="Y2" t="n">
-        <v>1649.768746285017</v>
+        <v>2349.189668652989</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1580.166670150082</v>
+        <v>2508.057567691639</v>
       </c>
       <c r="C3" t="n">
-        <v>1473.710208986724</v>
+        <v>2401.601106528281</v>
       </c>
       <c r="D3" t="n">
-        <v>1378.619920133277</v>
+        <v>2306.510817674834</v>
       </c>
       <c r="E3" t="n">
-        <v>1284.499505460231</v>
+        <v>2212.390403001788</v>
       </c>
       <c r="F3" t="n">
-        <v>1201.115667076393</v>
+        <v>2129.00656461795</v>
       </c>
       <c r="G3" t="n">
-        <v>1115.730577342577</v>
+        <v>2043.621474884133</v>
       </c>
       <c r="H3" t="n">
-        <v>1073.994925158789</v>
+        <v>2001.885822700346</v>
       </c>
       <c r="I3" t="n">
-        <v>1100.058598319247</v>
+        <v>2001.885822700346</v>
       </c>
       <c r="J3" t="n">
-        <v>1424.616923285459</v>
+        <v>2326.444147666558</v>
       </c>
       <c r="K3" t="n">
-        <v>2079.322969911183</v>
+        <v>3007.177667736936</v>
       </c>
       <c r="L3" t="n">
-        <v>2079.322969911183</v>
+        <v>3007.177667736936</v>
       </c>
       <c r="M3" t="n">
-        <v>2079.322969911183</v>
+        <v>3007.177667736936</v>
       </c>
       <c r="N3" t="n">
-        <v>2079.322969911183</v>
+        <v>3007.177667736936</v>
       </c>
       <c r="O3" t="n">
-        <v>2079.322969911183</v>
+        <v>3007.177667736936</v>
       </c>
       <c r="P3" t="n">
-        <v>2079.322969911183</v>
+        <v>3007.213867452739</v>
       </c>
       <c r="Q3" t="n">
-        <v>2620.061908543259</v>
+        <v>3547.952806084815</v>
       </c>
       <c r="R3" t="n">
-        <v>2737.234686637598</v>
+        <v>3665.125584179154</v>
       </c>
       <c r="S3" t="n">
-        <v>2673.779249085981</v>
+        <v>3601.670146627538</v>
       </c>
       <c r="T3" t="n">
-        <v>2543.600605416583</v>
+        <v>3471.491502958139</v>
       </c>
       <c r="U3" t="n">
-        <v>2367.264058416551</v>
+        <v>3295.154955958108</v>
       </c>
       <c r="V3" t="n">
-        <v>2168.14654047855</v>
+        <v>3096.037438020107</v>
       </c>
       <c r="W3" t="n">
-        <v>1982.823786211744</v>
+        <v>2910.714683753301</v>
       </c>
       <c r="X3" t="n">
-        <v>1827.956350450624</v>
+        <v>2755.847247992181</v>
       </c>
       <c r="Y3" t="n">
-        <v>1701.470571229845</v>
+        <v>2629.361468771402</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>742.8207098557364</v>
+        <v>1152.360672295464</v>
       </c>
       <c r="C4" t="n">
-        <v>570.2589983389613</v>
+        <v>979.7989607786893</v>
       </c>
       <c r="D4" t="n">
-        <v>489.8697007455832</v>
+        <v>813.920967980212</v>
       </c>
       <c r="E4" t="n">
-        <v>320.1116969963205</v>
+        <v>644.1629642309493</v>
       </c>
       <c r="F4" t="n">
-        <v>143.4046429580766</v>
+        <v>467.4559101927056</v>
       </c>
       <c r="G4" t="n">
-        <v>143.4046429580766</v>
+        <v>301.8646352185332</v>
       </c>
       <c r="H4" t="n">
-        <v>143.4046429580766</v>
+        <v>161.9624609089078</v>
       </c>
       <c r="I4" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358309</v>
       </c>
       <c r="J4" t="n">
-        <v>141.3243788974418</v>
+        <v>159.882196848273</v>
       </c>
       <c r="K4" t="n">
-        <v>416.0828334685774</v>
+        <v>434.6406514194085</v>
       </c>
       <c r="L4" t="n">
-        <v>834.2927152365385</v>
+        <v>852.8505331873696</v>
       </c>
       <c r="M4" t="n">
-        <v>1293.776582417452</v>
+        <v>1312.334400368283</v>
       </c>
       <c r="N4" t="n">
-        <v>1736.035385575096</v>
+        <v>1754.593203525927</v>
       </c>
       <c r="O4" t="n">
-        <v>2155.704634800878</v>
+        <v>2174.262452751709</v>
       </c>
       <c r="P4" t="n">
-        <v>2503.211528771219</v>
+        <v>2521.769346722051</v>
       </c>
       <c r="Q4" t="n">
-        <v>2671.404303635552</v>
+        <v>2689.962121586383</v>
       </c>
       <c r="R4" t="n">
-        <v>2649.986482340924</v>
+        <v>2668.544300291755</v>
       </c>
       <c r="S4" t="n">
-        <v>2490.74511363892</v>
+        <v>2668.544300291755</v>
       </c>
       <c r="T4" t="n">
-        <v>2244.865667217376</v>
+        <v>2654.405629657103</v>
       </c>
       <c r="U4" t="n">
-        <v>1966.432666470481</v>
+        <v>2375.972628910209</v>
       </c>
       <c r="V4" t="n">
-        <v>1679.477158340911</v>
+        <v>2089.017120780639</v>
       </c>
       <c r="W4" t="n">
-        <v>1407.450753927203</v>
+        <v>1816.990716366931</v>
       </c>
       <c r="X4" t="n">
-        <v>1162.058999260615</v>
+        <v>1571.598961700343</v>
       </c>
       <c r="Y4" t="n">
-        <v>934.6393285747235</v>
+        <v>1344.179291014452</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>578.317913686169</v>
+        <v>2210.811564507809</v>
       </c>
       <c r="C5" t="n">
-        <v>544.2158449099963</v>
+        <v>1772.669091691232</v>
       </c>
       <c r="D5" t="n">
-        <v>512.3464641248449</v>
+        <v>1336.759306865676</v>
       </c>
       <c r="E5" t="n">
-        <v>78.57171928314017</v>
+        <v>902.9845620239714</v>
       </c>
       <c r="F5" t="n">
-        <v>54.74469373275195</v>
+        <v>475.1171324331792</v>
       </c>
       <c r="G5" t="n">
-        <v>54.74469373275195</v>
+        <v>73.71930105644307</v>
       </c>
       <c r="H5" t="n">
-        <v>54.74469373275195</v>
+        <v>73.71930105644307</v>
       </c>
       <c r="I5" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358308</v>
       </c>
       <c r="J5" t="n">
-        <v>489.9993811856698</v>
+        <v>508.557199136501</v>
       </c>
       <c r="K5" t="n">
-        <v>1167.464966128475</v>
+        <v>1214.044276549766</v>
       </c>
       <c r="L5" t="n">
-        <v>1344.116250983141</v>
+        <v>1214.044276549766</v>
       </c>
       <c r="M5" t="n">
-        <v>1344.116250983141</v>
+        <v>1214.044276549766</v>
       </c>
       <c r="N5" t="n">
-        <v>1344.116250983141</v>
+        <v>1214.044276549766</v>
       </c>
       <c r="O5" t="n">
-        <v>1344.116250983141</v>
+        <v>2121.162858634106</v>
       </c>
       <c r="P5" t="n">
-        <v>2021.581835925947</v>
+        <v>2949.472733467503</v>
       </c>
       <c r="Q5" t="n">
-        <v>2568.080621884541</v>
+        <v>3495.971519426097</v>
       </c>
       <c r="R5" t="n">
-        <v>2737.234686637598</v>
+        <v>3665.125584179154</v>
       </c>
       <c r="S5" t="n">
-        <v>2737.234686637598</v>
+        <v>3581.473710362991</v>
       </c>
       <c r="T5" t="n">
-        <v>2517.167459510636</v>
+        <v>3581.473710362991</v>
       </c>
       <c r="U5" t="n">
-        <v>2257.945156827654</v>
+        <v>3581.473710362991</v>
       </c>
       <c r="V5" t="n">
-        <v>1895.32820676148</v>
+        <v>3581.473710362991</v>
       </c>
       <c r="W5" t="n">
-        <v>1490.472752172513</v>
+        <v>3176.618255774024</v>
       </c>
       <c r="X5" t="n">
-        <v>1071.330288751824</v>
+        <v>2757.475792353335</v>
       </c>
       <c r="Y5" t="n">
-        <v>663.0441650514773</v>
+        <v>2637.111134992716</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>560.9164387240447</v>
+        <v>579.4742566748758</v>
       </c>
       <c r="C6" t="n">
-        <v>454.459977560687</v>
+        <v>473.0177955115182</v>
       </c>
       <c r="D6" t="n">
-        <v>359.3696887072403</v>
+        <v>377.9275066580714</v>
       </c>
       <c r="E6" t="n">
-        <v>265.249274034194</v>
+        <v>283.8070919850251</v>
       </c>
       <c r="F6" t="n">
-        <v>181.8654356503556</v>
+        <v>200.4232536011867</v>
       </c>
       <c r="G6" t="n">
-        <v>96.48034591653948</v>
+        <v>115.0381638673706</v>
       </c>
       <c r="H6" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358308</v>
       </c>
       <c r="I6" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358308</v>
       </c>
       <c r="J6" t="n">
-        <v>379.3030186989643</v>
+        <v>73.30251168358308</v>
       </c>
       <c r="K6" t="n">
-        <v>379.3030186989643</v>
+        <v>73.30251168358308</v>
       </c>
       <c r="L6" t="n">
-        <v>379.3030186989643</v>
+        <v>980.4210937679236</v>
       </c>
       <c r="M6" t="n">
-        <v>379.3030186989643</v>
+        <v>980.4210937679236</v>
       </c>
       <c r="N6" t="n">
-        <v>379.3030186989643</v>
+        <v>980.4210937679236</v>
       </c>
       <c r="O6" t="n">
-        <v>1056.76860364177</v>
+        <v>1619.369495068052</v>
       </c>
       <c r="P6" t="n">
-        <v>1060.072738485145</v>
+        <v>1619.369495068052</v>
       </c>
       <c r="Q6" t="n">
-        <v>1600.811677117221</v>
+        <v>1619.369495068052</v>
       </c>
       <c r="R6" t="n">
-        <v>1717.984455211561</v>
+        <v>1736.542273162392</v>
       </c>
       <c r="S6" t="n">
-        <v>1654.529017659944</v>
+        <v>1673.086835610775</v>
       </c>
       <c r="T6" t="n">
-        <v>1524.350373990545</v>
+        <v>1542.908191941377</v>
       </c>
       <c r="U6" t="n">
-        <v>1348.013826990514</v>
+        <v>1366.571644941345</v>
       </c>
       <c r="V6" t="n">
-        <v>1148.896309052513</v>
+        <v>1167.454127003344</v>
       </c>
       <c r="W6" t="n">
-        <v>963.5735547857071</v>
+        <v>982.1313727365382</v>
       </c>
       <c r="X6" t="n">
-        <v>808.7061190245871</v>
+        <v>827.2639369754182</v>
       </c>
       <c r="Y6" t="n">
-        <v>682.2203398038079</v>
+        <v>700.778157754639</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>742.8207098557364</v>
+        <v>1152.360672295464</v>
       </c>
       <c r="C7" t="n">
-        <v>570.2589983389613</v>
+        <v>979.7989607786893</v>
       </c>
       <c r="D7" t="n">
-        <v>448.8980922418745</v>
+        <v>813.920967980212</v>
       </c>
       <c r="E7" t="n">
-        <v>448.8980922418745</v>
+        <v>644.1629642309493</v>
       </c>
       <c r="F7" t="n">
-        <v>448.8980922418745</v>
+        <v>467.4559101927056</v>
       </c>
       <c r="G7" t="n">
-        <v>283.3068172677021</v>
+        <v>301.8646352185332</v>
       </c>
       <c r="H7" t="n">
-        <v>143.4046429580766</v>
+        <v>161.9624609089078</v>
       </c>
       <c r="I7" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358308</v>
       </c>
       <c r="J7" t="n">
-        <v>141.3243788974418</v>
+        <v>159.8821968482729</v>
       </c>
       <c r="K7" t="n">
-        <v>416.0828334685774</v>
+        <v>434.6406514194085</v>
       </c>
       <c r="L7" t="n">
-        <v>834.2927152365385</v>
+        <v>852.8505331873696</v>
       </c>
       <c r="M7" t="n">
-        <v>1293.776582417452</v>
+        <v>1312.334400368283</v>
       </c>
       <c r="N7" t="n">
-        <v>1736.035385575096</v>
+        <v>1754.593203525927</v>
       </c>
       <c r="O7" t="n">
-        <v>2155.704634800878</v>
+        <v>2174.262452751709</v>
       </c>
       <c r="P7" t="n">
-        <v>2503.211528771219</v>
+        <v>2521.769346722051</v>
       </c>
       <c r="Q7" t="n">
-        <v>2671.404303635552</v>
+        <v>2689.962121586383</v>
       </c>
       <c r="R7" t="n">
-        <v>2649.986482340924</v>
+        <v>2668.544300291755</v>
       </c>
       <c r="S7" t="n">
-        <v>2490.74511363892</v>
+        <v>2509.302931589751</v>
       </c>
       <c r="T7" t="n">
-        <v>2244.865667217376</v>
+        <v>2263.423485168206</v>
       </c>
       <c r="U7" t="n">
-        <v>1966.432666470481</v>
+        <v>2184.154010191221</v>
       </c>
       <c r="V7" t="n">
-        <v>1679.477158340911</v>
+        <v>1897.198502061652</v>
       </c>
       <c r="W7" t="n">
-        <v>1407.450753927203</v>
+        <v>1625.172097647944</v>
       </c>
       <c r="X7" t="n">
-        <v>1162.058999260615</v>
+        <v>1379.780342981356</v>
       </c>
       <c r="Y7" t="n">
-        <v>934.6393285747235</v>
+        <v>1152.360672295464</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1078.651074442687</v>
+        <v>2210.811564507809</v>
       </c>
       <c r="C8" t="n">
-        <v>640.5086016261107</v>
+        <v>1772.669091691232</v>
       </c>
       <c r="D8" t="n">
-        <v>608.6392208409593</v>
+        <v>1336.759306865676</v>
       </c>
       <c r="E8" t="n">
-        <v>482.6121233235442</v>
+        <v>902.9845620239714</v>
       </c>
       <c r="F8" t="n">
-        <v>54.74469373275195</v>
+        <v>475.1171324331792</v>
       </c>
       <c r="G8" t="n">
-        <v>54.74469373275195</v>
+        <v>73.71930105644307</v>
       </c>
       <c r="H8" t="n">
-        <v>54.74469373275195</v>
+        <v>73.71930105644307</v>
       </c>
       <c r="I8" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358308</v>
       </c>
       <c r="J8" t="n">
-        <v>489.9993811856698</v>
+        <v>508.557199136501</v>
       </c>
       <c r="K8" t="n">
-        <v>1167.464966128475</v>
+        <v>1342.907491094679</v>
       </c>
       <c r="L8" t="n">
-        <v>1167.464966128475</v>
+        <v>1342.907491094679</v>
       </c>
       <c r="M8" t="n">
-        <v>1167.464966128475</v>
+        <v>1342.907491094679</v>
       </c>
       <c r="N8" t="n">
-        <v>1167.464966128475</v>
+        <v>1342.907491094679</v>
       </c>
       <c r="O8" t="n">
-        <v>1344.116250983141</v>
+        <v>2250.026073179019</v>
       </c>
       <c r="P8" t="n">
-        <v>2021.581835925947</v>
+        <v>3078.335948012416</v>
       </c>
       <c r="Q8" t="n">
-        <v>2568.080621884541</v>
+        <v>3624.83473397101</v>
       </c>
       <c r="R8" t="n">
-        <v>2737.234686637598</v>
+        <v>3665.125584179154</v>
       </c>
       <c r="S8" t="n">
-        <v>2737.234686637598</v>
+        <v>3665.125584179154</v>
       </c>
       <c r="T8" t="n">
-        <v>2737.234686637598</v>
+        <v>3445.058357052193</v>
       </c>
       <c r="U8" t="n">
-        <v>2737.234686637598</v>
+        <v>3185.83605436921</v>
       </c>
       <c r="V8" t="n">
-        <v>2737.234686637598</v>
+        <v>3185.83605436921</v>
       </c>
       <c r="W8" t="n">
-        <v>2332.379232048631</v>
+        <v>3185.021003820647</v>
       </c>
       <c r="X8" t="n">
-        <v>1913.236768627942</v>
+        <v>3045.397258693063</v>
       </c>
       <c r="Y8" t="n">
-        <v>1504.950644927595</v>
+        <v>2637.111134992716</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>560.9164387240447</v>
+        <v>579.4742566748758</v>
       </c>
       <c r="C9" t="n">
-        <v>454.459977560687</v>
+        <v>473.0177955115182</v>
       </c>
       <c r="D9" t="n">
-        <v>359.3696887072403</v>
+        <v>377.9275066580714</v>
       </c>
       <c r="E9" t="n">
-        <v>265.249274034194</v>
+        <v>283.8070919850251</v>
       </c>
       <c r="F9" t="n">
-        <v>181.8654356503556</v>
+        <v>200.4232536011867</v>
       </c>
       <c r="G9" t="n">
-        <v>96.48034591653948</v>
+        <v>115.0381638673706</v>
       </c>
       <c r="H9" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358308</v>
       </c>
       <c r="I9" t="n">
-        <v>80.80836689320955</v>
+        <v>73.30251168358308</v>
       </c>
       <c r="J9" t="n">
-        <v>405.3666918594219</v>
+        <v>73.30251168358308</v>
       </c>
       <c r="K9" t="n">
-        <v>1082.832276802227</v>
+        <v>73.30251168358308</v>
       </c>
       <c r="L9" t="n">
-        <v>1082.832276802227</v>
+        <v>73.30251168358308</v>
       </c>
       <c r="M9" t="n">
-        <v>1082.832276802227</v>
+        <v>829.4236910780512</v>
       </c>
       <c r="N9" t="n">
-        <v>1082.832276802227</v>
+        <v>1736.542273162392</v>
       </c>
       <c r="O9" t="n">
-        <v>1082.832276802227</v>
+        <v>1736.542273162392</v>
       </c>
       <c r="P9" t="n">
-        <v>1082.832276802227</v>
+        <v>1736.542273162392</v>
       </c>
       <c r="Q9" t="n">
-        <v>1600.811677117221</v>
+        <v>1736.542273162392</v>
       </c>
       <c r="R9" t="n">
-        <v>1717.984455211561</v>
+        <v>1736.542273162392</v>
       </c>
       <c r="S9" t="n">
-        <v>1654.529017659944</v>
+        <v>1673.086835610775</v>
       </c>
       <c r="T9" t="n">
-        <v>1524.350373990545</v>
+        <v>1542.908191941377</v>
       </c>
       <c r="U9" t="n">
-        <v>1348.013826990514</v>
+        <v>1366.571644941345</v>
       </c>
       <c r="V9" t="n">
-        <v>1148.896309052513</v>
+        <v>1167.454127003344</v>
       </c>
       <c r="W9" t="n">
-        <v>963.5735547857071</v>
+        <v>982.1313727365382</v>
       </c>
       <c r="X9" t="n">
-        <v>808.7061190245871</v>
+        <v>827.2639369754182</v>
       </c>
       <c r="Y9" t="n">
-        <v>682.2203398038079</v>
+        <v>700.778157754639</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>993.9006800350078</v>
+        <v>1152.360672295464</v>
       </c>
       <c r="C10" t="n">
-        <v>821.3389685182327</v>
+        <v>979.7989607786893</v>
       </c>
       <c r="D10" t="n">
-        <v>655.4609757197554</v>
+        <v>813.920967980212</v>
       </c>
       <c r="E10" t="n">
-        <v>485.7029719704927</v>
+        <v>644.1629642309493</v>
       </c>
       <c r="F10" t="n">
-        <v>308.995917932249</v>
+        <v>467.4559101927056</v>
       </c>
       <c r="G10" t="n">
-        <v>143.4046429580766</v>
+        <v>301.8646352185332</v>
       </c>
       <c r="H10" t="n">
-        <v>143.4046429580766</v>
+        <v>161.9624609089078</v>
       </c>
       <c r="I10" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358308</v>
       </c>
       <c r="J10" t="n">
-        <v>141.3243788974418</v>
+        <v>159.8821968482729</v>
       </c>
       <c r="K10" t="n">
-        <v>416.0828334685774</v>
+        <v>434.6406514194085</v>
       </c>
       <c r="L10" t="n">
-        <v>834.2927152365385</v>
+        <v>852.8505331873696</v>
       </c>
       <c r="M10" t="n">
-        <v>1293.776582417452</v>
+        <v>1312.334400368283</v>
       </c>
       <c r="N10" t="n">
-        <v>1736.035385575096</v>
+        <v>1754.593203525927</v>
       </c>
       <c r="O10" t="n">
-        <v>2155.704634800878</v>
+        <v>2174.262452751709</v>
       </c>
       <c r="P10" t="n">
-        <v>2503.211528771219</v>
+        <v>2521.769346722051</v>
       </c>
       <c r="Q10" t="n">
-        <v>2671.404303635552</v>
+        <v>2689.962121586383</v>
       </c>
       <c r="R10" t="n">
-        <v>2671.404303635552</v>
+        <v>2668.544300291755</v>
       </c>
       <c r="S10" t="n">
-        <v>2512.162934933549</v>
+        <v>2509.302931589751</v>
       </c>
       <c r="T10" t="n">
-        <v>2495.945637396647</v>
+        <v>2509.302931589751</v>
       </c>
       <c r="U10" t="n">
-        <v>2217.512636649752</v>
+        <v>2230.869930842856</v>
       </c>
       <c r="V10" t="n">
-        <v>1930.557128520183</v>
+        <v>2089.017120780639</v>
       </c>
       <c r="W10" t="n">
-        <v>1658.530724106474</v>
+        <v>1816.990716366931</v>
       </c>
       <c r="X10" t="n">
-        <v>1413.138969439887</v>
+        <v>1571.598961700343</v>
       </c>
       <c r="Y10" t="n">
-        <v>1185.719298753995</v>
+        <v>1344.179291014452</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>572.2351841710959</v>
+        <v>2499.524929691732</v>
       </c>
       <c r="C11" t="n">
-        <v>134.0927113545192</v>
+        <v>2061.382456875156</v>
       </c>
       <c r="D11" t="n">
-        <v>54.74469373275195</v>
+        <v>1625.4726720496</v>
       </c>
       <c r="E11" t="n">
-        <v>54.74469373275195</v>
+        <v>1191.697927207895</v>
       </c>
       <c r="F11" t="n">
-        <v>54.74469373275195</v>
+        <v>763.830497617103</v>
       </c>
       <c r="G11" t="n">
-        <v>54.74469373275195</v>
+        <v>362.4326662403668</v>
       </c>
       <c r="H11" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358308</v>
       </c>
       <c r="I11" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358308</v>
       </c>
       <c r="J11" t="n">
-        <v>489.9993811856698</v>
+        <v>508.557199136501</v>
       </c>
       <c r="K11" t="n">
-        <v>1167.464966128475</v>
+        <v>1342.907491094679</v>
       </c>
       <c r="L11" t="n">
-        <v>1167.464966128475</v>
+        <v>1342.907491094679</v>
       </c>
       <c r="M11" t="n">
-        <v>1167.464966128475</v>
+        <v>1342.907491094679</v>
       </c>
       <c r="N11" t="n">
-        <v>1167.464966128475</v>
+        <v>1342.907491094679</v>
       </c>
       <c r="O11" t="n">
-        <v>1344.116250983141</v>
+        <v>2250.026073179019</v>
       </c>
       <c r="P11" t="n">
-        <v>2021.581835925947</v>
+        <v>3078.335948012416</v>
       </c>
       <c r="Q11" t="n">
-        <v>2568.080621884541</v>
+        <v>3624.83473397101</v>
       </c>
       <c r="R11" t="n">
-        <v>2737.234686637598</v>
+        <v>3665.125584179154</v>
       </c>
       <c r="S11" t="n">
-        <v>2653.582812821435</v>
+        <v>3665.125584179154</v>
       </c>
       <c r="T11" t="n">
-        <v>2433.515585694473</v>
+        <v>3665.125584179154</v>
       </c>
       <c r="U11" t="n">
-        <v>2174.293283011491</v>
+        <v>3665.125584179154</v>
       </c>
       <c r="V11" t="n">
-        <v>1811.676332945317</v>
+        <v>3302.50863411298</v>
       </c>
       <c r="W11" t="n">
-        <v>1406.82087835635</v>
+        <v>2897.653179524013</v>
       </c>
       <c r="X11" t="n">
-        <v>1406.82087835635</v>
+        <v>2897.653179524013</v>
       </c>
       <c r="Y11" t="n">
-        <v>998.5347546560037</v>
+        <v>2897.653179524013</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>560.9164387240447</v>
+        <v>579.4742566748758</v>
       </c>
       <c r="C12" t="n">
-        <v>454.459977560687</v>
+        <v>473.0177955115182</v>
       </c>
       <c r="D12" t="n">
-        <v>359.3696887072403</v>
+        <v>377.9275066580714</v>
       </c>
       <c r="E12" t="n">
-        <v>265.249274034194</v>
+        <v>283.8070919850251</v>
       </c>
       <c r="F12" t="n">
-        <v>181.8654356503556</v>
+        <v>200.4232536011867</v>
       </c>
       <c r="G12" t="n">
-        <v>96.48034591653948</v>
+        <v>115.0381638673706</v>
       </c>
       <c r="H12" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358308</v>
       </c>
       <c r="I12" t="n">
-        <v>58.04882857612763</v>
+        <v>99.36618484404067</v>
       </c>
       <c r="J12" t="n">
-        <v>382.60715354234</v>
+        <v>423.924509810253</v>
       </c>
       <c r="K12" t="n">
-        <v>382.60715354234</v>
+        <v>1078.630556435977</v>
       </c>
       <c r="L12" t="n">
-        <v>382.60715354234</v>
+        <v>1078.630556435977</v>
       </c>
       <c r="M12" t="n">
-        <v>382.60715354234</v>
+        <v>1078.630556435977</v>
       </c>
       <c r="N12" t="n">
-        <v>382.60715354234</v>
+        <v>1078.630556435977</v>
       </c>
       <c r="O12" t="n">
-        <v>382.60715354234</v>
+        <v>1078.630556435977</v>
       </c>
       <c r="P12" t="n">
-        <v>1060.072738485145</v>
+        <v>1078.630556435977</v>
       </c>
       <c r="Q12" t="n">
-        <v>1600.811677117221</v>
+        <v>1619.369495068052</v>
       </c>
       <c r="R12" t="n">
-        <v>1717.984455211561</v>
+        <v>1736.542273162392</v>
       </c>
       <c r="S12" t="n">
-        <v>1654.529017659944</v>
+        <v>1673.086835610775</v>
       </c>
       <c r="T12" t="n">
-        <v>1524.350373990545</v>
+        <v>1542.908191941377</v>
       </c>
       <c r="U12" t="n">
-        <v>1348.013826990514</v>
+        <v>1366.571644941345</v>
       </c>
       <c r="V12" t="n">
-        <v>1148.896309052513</v>
+        <v>1167.454127003344</v>
       </c>
       <c r="W12" t="n">
-        <v>963.5735547857071</v>
+        <v>982.1313727365382</v>
       </c>
       <c r="X12" t="n">
-        <v>808.7061190245871</v>
+        <v>827.2639369754182</v>
       </c>
       <c r="Y12" t="n">
-        <v>682.2203398038079</v>
+        <v>700.778157754639</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1133.802854344633</v>
+        <v>1063.70072307014</v>
       </c>
       <c r="C13" t="n">
-        <v>961.2411428278582</v>
+        <v>891.1390115533646</v>
       </c>
       <c r="D13" t="n">
-        <v>795.3631500293809</v>
+        <v>725.2610187548873</v>
       </c>
       <c r="E13" t="n">
-        <v>625.6051462801182</v>
+        <v>555.5030150056247</v>
       </c>
       <c r="F13" t="n">
-        <v>448.8980922418745</v>
+        <v>378.7959609673809</v>
       </c>
       <c r="G13" t="n">
-        <v>283.3068172677021</v>
+        <v>213.2046859932086</v>
       </c>
       <c r="H13" t="n">
-        <v>143.4046429580766</v>
+        <v>73.30251168358308</v>
       </c>
       <c r="I13" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358308</v>
       </c>
       <c r="J13" t="n">
-        <v>141.3243788974418</v>
+        <v>159.8821968482729</v>
       </c>
       <c r="K13" t="n">
-        <v>416.0828334685774</v>
+        <v>434.6406514194085</v>
       </c>
       <c r="L13" t="n">
-        <v>834.2927152365385</v>
+        <v>852.8505331873696</v>
       </c>
       <c r="M13" t="n">
-        <v>1293.776582417452</v>
+        <v>1312.334400368283</v>
       </c>
       <c r="N13" t="n">
-        <v>1736.035385575096</v>
+        <v>1754.593203525927</v>
       </c>
       <c r="O13" t="n">
-        <v>2155.704634800878</v>
+        <v>2174.262452751709</v>
       </c>
       <c r="P13" t="n">
-        <v>2503.211528771219</v>
+        <v>2521.769346722051</v>
       </c>
       <c r="Q13" t="n">
-        <v>2671.404303635552</v>
+        <v>2689.962121586383</v>
       </c>
       <c r="R13" t="n">
-        <v>2671.404303635552</v>
+        <v>2689.962121586383</v>
       </c>
       <c r="S13" t="n">
-        <v>2671.404303635552</v>
+        <v>2689.962121586383</v>
       </c>
       <c r="T13" t="n">
-        <v>2425.524857214007</v>
+        <v>2565.745680431779</v>
       </c>
       <c r="U13" t="n">
-        <v>2357.414810959378</v>
+        <v>2287.312679684884</v>
       </c>
       <c r="V13" t="n">
-        <v>2070.459302829808</v>
+        <v>2000.357171555315</v>
       </c>
       <c r="W13" t="n">
-        <v>1798.4328984161</v>
+        <v>1728.330767141606</v>
       </c>
       <c r="X13" t="n">
-        <v>1553.041143749512</v>
+        <v>1482.939012475019</v>
       </c>
       <c r="Y13" t="n">
-        <v>1325.62147306362</v>
+        <v>1255.519341789127</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>892.0523099350436</v>
+        <v>1808.996943758212</v>
       </c>
       <c r="C14" t="n">
-        <v>892.0523099350436</v>
+        <v>1370.854470941636</v>
       </c>
       <c r="D14" t="n">
-        <v>456.1425251094881</v>
+        <v>934.9446861160802</v>
       </c>
       <c r="E14" t="n">
-        <v>456.1425251094881</v>
+        <v>501.1699412743753</v>
       </c>
       <c r="F14" t="n">
-        <v>456.1425251094881</v>
+        <v>73.30251168358308</v>
       </c>
       <c r="G14" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358308</v>
       </c>
       <c r="H14" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358308</v>
       </c>
       <c r="I14" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358308</v>
       </c>
       <c r="J14" t="n">
-        <v>489.9993811856698</v>
+        <v>508.557199136501</v>
       </c>
       <c r="K14" t="n">
-        <v>1167.464966128475</v>
+        <v>1342.907491094679</v>
       </c>
       <c r="L14" t="n">
-        <v>1344.116250983141</v>
+        <v>1342.907491094679</v>
       </c>
       <c r="M14" t="n">
-        <v>1344.116250983141</v>
+        <v>1342.907491094679</v>
       </c>
       <c r="N14" t="n">
-        <v>1344.116250983141</v>
+        <v>1342.907491094679</v>
       </c>
       <c r="O14" t="n">
-        <v>1344.116250983141</v>
+        <v>2250.026073179019</v>
       </c>
       <c r="P14" t="n">
-        <v>2021.581835925947</v>
+        <v>3078.335948012416</v>
       </c>
       <c r="Q14" t="n">
-        <v>2568.080621884541</v>
+        <v>3624.83473397101</v>
       </c>
       <c r="R14" t="n">
-        <v>2737.234686637598</v>
+        <v>3665.125584179154</v>
       </c>
       <c r="S14" t="n">
-        <v>2737.234686637598</v>
+        <v>3665.125584179154</v>
       </c>
       <c r="T14" t="n">
-        <v>2737.234686637598</v>
+        <v>3665.125584179154</v>
       </c>
       <c r="U14" t="n">
-        <v>2737.234686637598</v>
+        <v>3665.125584179154</v>
       </c>
       <c r="V14" t="n">
-        <v>2374.617736571424</v>
+        <v>3467.580555953123</v>
       </c>
       <c r="W14" t="n">
-        <v>1969.762281982458</v>
+        <v>3062.725101364156</v>
       </c>
       <c r="X14" t="n">
-        <v>1550.619818561768</v>
+        <v>2643.582637943467</v>
       </c>
       <c r="Y14" t="n">
-        <v>1142.333694861421</v>
+        <v>2235.29651424312</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>560.9164387240447</v>
+        <v>579.4742566748758</v>
       </c>
       <c r="C15" t="n">
-        <v>454.459977560687</v>
+        <v>473.0177955115182</v>
       </c>
       <c r="D15" t="n">
-        <v>359.3696887072403</v>
+        <v>377.9275066580714</v>
       </c>
       <c r="E15" t="n">
-        <v>265.249274034194</v>
+        <v>283.8070919850251</v>
       </c>
       <c r="F15" t="n">
-        <v>181.8654356503556</v>
+        <v>200.4232536011867</v>
       </c>
       <c r="G15" t="n">
-        <v>96.48034591653948</v>
+        <v>115.0381638673706</v>
       </c>
       <c r="H15" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358308</v>
       </c>
       <c r="I15" t="n">
-        <v>58.04882857612763</v>
+        <v>99.36618484404067</v>
       </c>
       <c r="J15" t="n">
-        <v>382.60715354234</v>
+        <v>423.924509810253</v>
       </c>
       <c r="K15" t="n">
-        <v>382.60715354234</v>
+        <v>1078.630556435977</v>
       </c>
       <c r="L15" t="n">
-        <v>382.60715354234</v>
+        <v>1078.630556435977</v>
       </c>
       <c r="M15" t="n">
-        <v>382.60715354234</v>
+        <v>1078.630556435977</v>
       </c>
       <c r="N15" t="n">
-        <v>382.60715354234</v>
+        <v>1078.630556435977</v>
       </c>
       <c r="O15" t="n">
-        <v>382.60715354234</v>
+        <v>1078.630556435977</v>
       </c>
       <c r="P15" t="n">
-        <v>1060.072738485145</v>
+        <v>1078.630556435977</v>
       </c>
       <c r="Q15" t="n">
-        <v>1600.811677117221</v>
+        <v>1619.369495068052</v>
       </c>
       <c r="R15" t="n">
-        <v>1717.984455211561</v>
+        <v>1736.542273162392</v>
       </c>
       <c r="S15" t="n">
-        <v>1654.529017659944</v>
+        <v>1673.086835610775</v>
       </c>
       <c r="T15" t="n">
-        <v>1524.350373990545</v>
+        <v>1542.908191941377</v>
       </c>
       <c r="U15" t="n">
-        <v>1348.013826990514</v>
+        <v>1366.571644941345</v>
       </c>
       <c r="V15" t="n">
-        <v>1148.896309052513</v>
+        <v>1167.454127003344</v>
       </c>
       <c r="W15" t="n">
-        <v>963.5735547857071</v>
+        <v>982.1313727365382</v>
       </c>
       <c r="X15" t="n">
-        <v>808.7061190245871</v>
+        <v>827.2639369754182</v>
       </c>
       <c r="Y15" t="n">
-        <v>682.2203398038079</v>
+        <v>700.778157754639</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1133.802854344633</v>
+        <v>782.7963491011951</v>
       </c>
       <c r="C16" t="n">
-        <v>961.2411428278582</v>
+        <v>610.2346375844201</v>
       </c>
       <c r="D16" t="n">
-        <v>795.3631500293809</v>
+        <v>444.3566447859428</v>
       </c>
       <c r="E16" t="n">
-        <v>625.6051462801182</v>
+        <v>274.59864103668</v>
       </c>
       <c r="F16" t="n">
-        <v>448.8980922418745</v>
+        <v>97.89158699843622</v>
       </c>
       <c r="G16" t="n">
-        <v>283.3068172677021</v>
+        <v>73.30251168358308</v>
       </c>
       <c r="H16" t="n">
-        <v>143.4046429580766</v>
+        <v>73.30251168358308</v>
       </c>
       <c r="I16" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358308</v>
       </c>
       <c r="J16" t="n">
-        <v>141.3243788974418</v>
+        <v>159.8821968482729</v>
       </c>
       <c r="K16" t="n">
-        <v>416.0828334685774</v>
+        <v>434.6406514194085</v>
       </c>
       <c r="L16" t="n">
-        <v>834.2927152365385</v>
+        <v>852.8505331873696</v>
       </c>
       <c r="M16" t="n">
-        <v>1293.776582417452</v>
+        <v>1312.334400368283</v>
       </c>
       <c r="N16" t="n">
-        <v>1736.035385575096</v>
+        <v>1754.593203525927</v>
       </c>
       <c r="O16" t="n">
-        <v>2155.704634800878</v>
+        <v>2174.262452751709</v>
       </c>
       <c r="P16" t="n">
-        <v>2503.211528771219</v>
+        <v>2521.769346722051</v>
       </c>
       <c r="Q16" t="n">
-        <v>2671.404303635552</v>
+        <v>2689.962121586383</v>
       </c>
       <c r="R16" t="n">
-        <v>2671.404303635552</v>
+        <v>2689.962121586383</v>
       </c>
       <c r="S16" t="n">
-        <v>2671.404303635552</v>
+        <v>2530.720752884379</v>
       </c>
       <c r="T16" t="n">
-        <v>2425.524857214007</v>
+        <v>2284.841306462834</v>
       </c>
       <c r="U16" t="n">
-        <v>2357.414810959378</v>
+        <v>2006.40830571594</v>
       </c>
       <c r="V16" t="n">
-        <v>2070.459302829808</v>
+        <v>1719.45279758637</v>
       </c>
       <c r="W16" t="n">
-        <v>1798.4328984161</v>
+        <v>1447.426393172662</v>
       </c>
       <c r="X16" t="n">
-        <v>1553.041143749512</v>
+        <v>1202.034638506074</v>
       </c>
       <c r="Y16" t="n">
-        <v>1325.62147306362</v>
+        <v>974.6149678201823</v>
       </c>
     </row>
     <row r="17">
@@ -5516,13 +5518,13 @@
         <v>537.5155277236975</v>
       </c>
       <c r="K17" t="n">
-        <v>537.5155277236975</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L17" t="n">
-        <v>537.5155277236975</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M17" t="n">
-        <v>1463.168637987181</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="N17" t="n">
         <v>2588.899621423628</v>
@@ -5589,13 +5591,13 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I18" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J18" t="n">
-        <v>426.819165236992</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K18" t="n">
-        <v>1107.552685307369</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L18" t="n">
         <v>1107.588885023173</v>
@@ -5647,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1181.319000882661</v>
+        <v>790.3368563937634</v>
       </c>
       <c r="C19" t="n">
-        <v>1008.757289365886</v>
+        <v>750.3393363912985</v>
       </c>
       <c r="D19" t="n">
-        <v>842.8792965674086</v>
+        <v>584.4613435928212</v>
       </c>
       <c r="E19" t="n">
-        <v>673.1212928181459</v>
+        <v>584.4613435928212</v>
       </c>
       <c r="F19" t="n">
-        <v>496.4142387799021</v>
+        <v>407.7542895545774</v>
       </c>
       <c r="G19" t="n">
-        <v>330.8229638057298</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H19" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I19" t="n">
         <v>102.2608402707796</v>
@@ -5698,25 +5700,25 @@
         <v>2697.502628878951</v>
       </c>
       <c r="S19" t="n">
-        <v>2697.502628878951</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T19" t="n">
-        <v>2683.3639582443</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U19" t="n">
-        <v>2404.930957497405</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V19" t="n">
-        <v>2117.975449367836</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="W19" t="n">
-        <v>1845.949044954127</v>
+        <v>1454.96690046523</v>
       </c>
       <c r="X19" t="n">
-        <v>1600.55729028754</v>
+        <v>1209.575145798642</v>
       </c>
       <c r="Y19" t="n">
-        <v>1373.137619601648</v>
+        <v>982.1554751127505</v>
       </c>
     </row>
     <row r="20">
@@ -5750,40 +5752,40 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J20" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K20" t="n">
-        <v>557.2627364873778</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L20" t="n">
-        <v>1632.322702740237</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M20" t="n">
-        <v>1632.322702740237</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="N20" t="n">
-        <v>2758.053686176684</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O20" t="n">
-        <v>3738.23335274699</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P20" t="n">
-        <v>4566.543227580387</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q20" t="n">
-        <v>5113.042013538981</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R20" t="n">
         <v>5113.042013538981</v>
       </c>
       <c r="S20" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T20" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U20" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V20" t="n">
         <v>4187.483659846699</v>
@@ -5844,13 +5846,13 @@
         <v>102.2608402707796</v>
       </c>
       <c r="O21" t="n">
-        <v>1116.062450089081</v>
+        <v>287.8657185439749</v>
       </c>
       <c r="P21" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q21" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R21" t="n">
         <v>1765.500601749588</v>
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>952.7568773477108</v>
+        <v>3575.440564248063</v>
       </c>
       <c r="C22" t="n">
-        <v>780.1951658309357</v>
+        <v>3402.878852731288</v>
       </c>
       <c r="D22" t="n">
-        <v>614.3171730324584</v>
+        <v>3237.000859932811</v>
       </c>
       <c r="E22" t="n">
-        <v>444.5591692831957</v>
+        <v>3067.242856183548</v>
       </c>
       <c r="F22" t="n">
-        <v>267.852115244952</v>
+        <v>2890.535802145304</v>
       </c>
       <c r="G22" t="n">
-        <v>102.2608402707796</v>
+        <v>2724.944527171132</v>
       </c>
       <c r="H22" t="n">
-        <v>102.2608402707796</v>
+        <v>2585.042352861507</v>
       </c>
       <c r="I22" t="n">
-        <v>102.2608402707796</v>
+        <v>2496.382403636182</v>
       </c>
       <c r="J22" t="n">
-        <v>188.8405254354695</v>
+        <v>2582.962088800872</v>
       </c>
       <c r="K22" t="n">
-        <v>463.598980006605</v>
+        <v>2857.720543372007</v>
       </c>
       <c r="L22" t="n">
-        <v>881.8088617745661</v>
+        <v>3275.930425139968</v>
       </c>
       <c r="M22" t="n">
-        <v>1341.292728955479</v>
+        <v>3735.414292320881</v>
       </c>
       <c r="N22" t="n">
-        <v>1783.551532113124</v>
+        <v>4177.673095478525</v>
       </c>
       <c r="O22" t="n">
-        <v>2203.220781338905</v>
+        <v>4597.342344704308</v>
       </c>
       <c r="P22" t="n">
-        <v>2550.727675309247</v>
+        <v>4944.849238674649</v>
       </c>
       <c r="Q22" t="n">
-        <v>2718.920450173579</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="R22" t="n">
-        <v>2718.920450173579</v>
+        <v>5091.624192244353</v>
       </c>
       <c r="S22" t="n">
-        <v>2700.681281130895</v>
+        <v>4932.38282354235</v>
       </c>
       <c r="T22" t="n">
-        <v>2454.80183470935</v>
+        <v>4686.503377120805</v>
       </c>
       <c r="U22" t="n">
-        <v>2176.368833962455</v>
+        <v>4686.503377120805</v>
       </c>
       <c r="V22" t="n">
-        <v>1889.413325832886</v>
+        <v>4512.097012733238</v>
       </c>
       <c r="W22" t="n">
-        <v>1617.386921419177</v>
+        <v>4240.070608319529</v>
       </c>
       <c r="X22" t="n">
-        <v>1371.99516675259</v>
+        <v>3994.678853652942</v>
       </c>
       <c r="Y22" t="n">
-        <v>1144.575496066698</v>
+        <v>3767.25918296705</v>
       </c>
     </row>
     <row r="23">
@@ -5975,13 +5977,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F23" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G23" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H23" t="n">
-        <v>102.6776296436392</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I23" t="n">
         <v>102.2608402707796</v>
@@ -5996,7 +5998,7 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M23" t="n">
-        <v>2588.899621423627</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N23" t="n">
         <v>2588.899621423627</v>
@@ -6026,13 +6028,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W23" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X23" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y23" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="24">
@@ -6063,31 +6065,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I24" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J24" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K24" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L24" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M24" t="n">
-        <v>1300.985674363279</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N24" t="n">
-        <v>1300.985674363279</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O24" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P24" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q24" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R24" t="n">
         <v>1765.500601749588</v>
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1181.319000882661</v>
+        <v>3346.878440713113</v>
       </c>
       <c r="C25" t="n">
-        <v>1008.757289365886</v>
+        <v>3174.316729196338</v>
       </c>
       <c r="D25" t="n">
-        <v>842.8792965674086</v>
+        <v>3008.438736397861</v>
       </c>
       <c r="E25" t="n">
-        <v>673.1212928181459</v>
+        <v>2838.680732648598</v>
       </c>
       <c r="F25" t="n">
-        <v>496.4142387799021</v>
+        <v>2661.973678610354</v>
       </c>
       <c r="G25" t="n">
-        <v>330.8229638057298</v>
+        <v>2496.382403636182</v>
       </c>
       <c r="H25" t="n">
-        <v>190.9207894961043</v>
+        <v>2496.382403636182</v>
       </c>
       <c r="I25" t="n">
-        <v>102.2608402707796</v>
+        <v>2496.382403636182</v>
       </c>
       <c r="J25" t="n">
-        <v>188.8405254354695</v>
+        <v>2582.962088800872</v>
       </c>
       <c r="K25" t="n">
-        <v>463.598980006605</v>
+        <v>2857.720543372007</v>
       </c>
       <c r="L25" t="n">
-        <v>881.8088617745661</v>
+        <v>3275.930425139968</v>
       </c>
       <c r="M25" t="n">
-        <v>1341.292728955479</v>
+        <v>3735.414292320881</v>
       </c>
       <c r="N25" t="n">
-        <v>1783.551532113124</v>
+        <v>4177.673095478525</v>
       </c>
       <c r="O25" t="n">
-        <v>2203.220781338905</v>
+        <v>4597.342344704308</v>
       </c>
       <c r="P25" t="n">
-        <v>2550.727675309247</v>
+        <v>4944.849238674649</v>
       </c>
       <c r="Q25" t="n">
-        <v>2718.920450173579</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="R25" t="n">
-        <v>2718.920450173579</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S25" t="n">
-        <v>2718.920450173579</v>
+        <v>5094.802844496297</v>
       </c>
       <c r="T25" t="n">
-        <v>2683.3639582443</v>
+        <v>4848.923398074752</v>
       </c>
       <c r="U25" t="n">
-        <v>2404.930957497405</v>
+        <v>4570.490397327858</v>
       </c>
       <c r="V25" t="n">
-        <v>2117.975449367836</v>
+        <v>4283.534889198289</v>
       </c>
       <c r="W25" t="n">
-        <v>1845.949044954127</v>
+        <v>4011.50848478458</v>
       </c>
       <c r="X25" t="n">
-        <v>1600.55729028754</v>
+        <v>3766.116730117992</v>
       </c>
       <c r="Y25" t="n">
-        <v>1373.137619601648</v>
+        <v>3538.697059432101</v>
       </c>
     </row>
     <row r="26">
@@ -6212,40 +6214,40 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F26" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G26" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H26" t="n">
-        <v>102.6776296436392</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I26" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J26" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K26" t="n">
-        <v>537.5155277236975</v>
+        <v>936.6111322289576</v>
       </c>
       <c r="L26" t="n">
-        <v>537.5155277236975</v>
+        <v>1632.322702740237</v>
       </c>
       <c r="M26" t="n">
-        <v>1694.563362934248</v>
+        <v>1632.322702740237</v>
       </c>
       <c r="N26" t="n">
-        <v>2820.294346370695</v>
+        <v>2758.053686176684</v>
       </c>
       <c r="O26" t="n">
-        <v>3800.474012941002</v>
+        <v>3738.23335274699</v>
       </c>
       <c r="P26" t="n">
-        <v>4628.783887774398</v>
+        <v>4566.543227580387</v>
       </c>
       <c r="Q26" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="R26" t="n">
         <v>5113.04201353898</v>
@@ -6300,28 +6302,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I27" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J27" t="n">
-        <v>147.8711371056732</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K27" t="n">
-        <v>828.6046571760505</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L27" t="n">
-        <v>828.6046571760505</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M27" t="n">
-        <v>828.6046571760505</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N27" t="n">
-        <v>828.6046571760505</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O27" t="n">
-        <v>828.6046571760505</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P27" t="n">
-        <v>1648.327823655249</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q27" t="n">
         <v>1648.327823655249</v>
@@ -6449,40 +6451,40 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F29" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G29" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H29" t="n">
-        <v>102.6776296436392</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I29" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J29" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K29" t="n">
-        <v>1371.865819681875</v>
+        <v>936.6111322289576</v>
       </c>
       <c r="L29" t="n">
-        <v>2446.925785934734</v>
+        <v>1632.322702740237</v>
       </c>
       <c r="M29" t="n">
-        <v>2588.899621423627</v>
+        <v>1632.322702740237</v>
       </c>
       <c r="N29" t="n">
-        <v>2588.899621423627</v>
+        <v>2758.053686176684</v>
       </c>
       <c r="O29" t="n">
-        <v>3569.079287993933</v>
+        <v>3738.23335274699</v>
       </c>
       <c r="P29" t="n">
-        <v>4397.38916282733</v>
+        <v>4566.543227580387</v>
       </c>
       <c r="Q29" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="R29" t="n">
         <v>5113.04201353898</v>
@@ -6500,13 +6502,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W29" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X29" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y29" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="30">
@@ -6537,31 +6539,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I30" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J30" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K30" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L30" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M30" t="n">
-        <v>751.6989919312866</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N30" t="n">
-        <v>751.6989919312866</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O30" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P30" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q30" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R30" t="n">
         <v>1765.500601749588</v>
@@ -6595,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>790.3368563937634</v>
+        <v>1181.319000882661</v>
       </c>
       <c r="C31" t="n">
-        <v>617.7751448769883</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D31" t="n">
-        <v>451.897152078511</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E31" t="n">
-        <v>282.1391483292483</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F31" t="n">
-        <v>105.4320942910045</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G31" t="n">
-        <v>102.2608402707796</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H31" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I31" t="n">
         <v>102.2608402707796</v>
@@ -6643,28 +6645,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R31" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S31" t="n">
-        <v>2538.261260176947</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T31" t="n">
-        <v>2292.381813755403</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U31" t="n">
-        <v>2013.948813008508</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="V31" t="n">
-        <v>1726.993304878938</v>
+        <v>2117.975449367836</v>
       </c>
       <c r="W31" t="n">
-        <v>1454.96690046523</v>
+        <v>1845.949044954127</v>
       </c>
       <c r="X31" t="n">
-        <v>1209.575145798642</v>
+        <v>1600.55729028754</v>
       </c>
       <c r="Y31" t="n">
-        <v>982.1554751127505</v>
+        <v>1373.137619601648</v>
       </c>
     </row>
     <row r="32">
@@ -6686,13 +6688,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F32" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G32" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H32" t="n">
-        <v>102.6776296436392</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I32" t="n">
         <v>102.2608402707796</v>
@@ -6707,13 +6709,13 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M32" t="n">
-        <v>3603.973621145286</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N32" t="n">
-        <v>3603.973621145286</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O32" t="n">
-        <v>3603.973621145286</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P32" t="n">
         <v>4397.38916282733</v>
@@ -6737,13 +6739,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W32" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X32" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y32" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="33">
@@ -6774,31 +6776,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I33" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J33" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K33" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L33" t="n">
-        <v>945.7774352703902</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M33" t="n">
-        <v>945.7774352703902</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N33" t="n">
-        <v>945.7774352703902</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O33" t="n">
-        <v>945.7774352703902</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P33" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q33" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R33" t="n">
         <v>1765.500601749588</v>
@@ -6832,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>952.7568773477108</v>
+        <v>1181.319000882661</v>
       </c>
       <c r="C34" t="n">
-        <v>780.1951658309357</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D34" t="n">
-        <v>614.3171730324584</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E34" t="n">
-        <v>444.5591692831957</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F34" t="n">
-        <v>267.852115244952</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G34" t="n">
-        <v>102.2608402707796</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H34" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I34" t="n">
         <v>102.2608402707796</v>
@@ -6880,28 +6882,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R34" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S34" t="n">
-        <v>2559.679081471576</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T34" t="n">
-        <v>2313.799635050031</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="U34" t="n">
-        <v>2176.368833962455</v>
+        <v>2404.930957497405</v>
       </c>
       <c r="V34" t="n">
-        <v>1889.413325832886</v>
+        <v>2117.975449367836</v>
       </c>
       <c r="W34" t="n">
-        <v>1617.386921419177</v>
+        <v>1845.949044954127</v>
       </c>
       <c r="X34" t="n">
-        <v>1371.99516675259</v>
+        <v>1600.55729028754</v>
       </c>
       <c r="Y34" t="n">
-        <v>1144.575496066698</v>
+        <v>1373.137619601648</v>
       </c>
     </row>
     <row r="35">
@@ -6923,13 +6925,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F35" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G35" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H35" t="n">
-        <v>102.6776296436392</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I35" t="n">
         <v>102.2608402707796</v>
@@ -6944,19 +6946,19 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M35" t="n">
-        <v>2588.899621423627</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N35" t="n">
-        <v>2588.899621423627</v>
+        <v>2758.053686176683</v>
       </c>
       <c r="O35" t="n">
-        <v>3569.079287993933</v>
+        <v>3738.23335274699</v>
       </c>
       <c r="P35" t="n">
-        <v>4397.38916282733</v>
+        <v>4566.543227580386</v>
       </c>
       <c r="Q35" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R35" t="n">
         <v>5113.04201353898</v>
@@ -6974,13 +6976,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W35" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X35" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y35" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="36">
@@ -7011,31 +7013,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I36" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J36" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K36" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L36" t="n">
-        <v>1056.803889081883</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M36" t="n">
-        <v>1056.803889081883</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N36" t="n">
-        <v>1056.803889081883</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O36" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P36" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q36" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R36" t="n">
         <v>1765.500601749588</v>
@@ -7069,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>838.7339540459399</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C37" t="n">
-        <v>666.1722425291648</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D37" t="n">
-        <v>666.1722425291648</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E37" t="n">
-        <v>496.4142387799021</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F37" t="n">
-        <v>496.4142387799021</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G37" t="n">
-        <v>330.8229638057298</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H37" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I37" t="n">
         <v>102.2608402707796</v>
@@ -7120,25 +7122,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S37" t="n">
-        <v>2586.658357829124</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T37" t="n">
-        <v>2340.778911407579</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U37" t="n">
-        <v>2062.345910660684</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V37" t="n">
-        <v>1775.390402531115</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W37" t="n">
-        <v>1503.363998117406</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X37" t="n">
-        <v>1257.972243450819</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y37" t="n">
-        <v>1030.552572764927</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="38">
@@ -7172,28 +7174,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J38" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K38" t="n">
-        <v>1371.865819681875</v>
+        <v>936.6111322289576</v>
       </c>
       <c r="L38" t="n">
-        <v>2446.925785934734</v>
+        <v>2011.671098481817</v>
       </c>
       <c r="M38" t="n">
-        <v>2446.925785934734</v>
+        <v>3168.718933692368</v>
       </c>
       <c r="N38" t="n">
-        <v>2588.899621423628</v>
+        <v>4294.449917128814</v>
       </c>
       <c r="O38" t="n">
-        <v>3569.079287993934</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="P38" t="n">
-        <v>4397.38916282733</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="Q38" t="n">
-        <v>4943.887948785925</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="R38" t="n">
         <v>5113.042013538981</v>
@@ -7202,16 +7204,16 @@
         <v>5029.390139722818</v>
       </c>
       <c r="T38" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U38" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V38" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W38" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X38" t="n">
         <v>3363.485741837043</v>
@@ -7227,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>608.4325852620724</v>
+        <v>3955.973997051466</v>
       </c>
       <c r="C39" t="n">
-        <v>501.9761240987147</v>
+        <v>3849.517535888108</v>
       </c>
       <c r="D39" t="n">
-        <v>406.885835245268</v>
+        <v>3754.427247034661</v>
       </c>
       <c r="E39" t="n">
-        <v>312.7654205722217</v>
+        <v>3660.306832361615</v>
       </c>
       <c r="F39" t="n">
-        <v>229.3815821883833</v>
+        <v>3576.922993977777</v>
       </c>
       <c r="G39" t="n">
-        <v>143.9964924545671</v>
+        <v>3491.53790424396</v>
       </c>
       <c r="H39" t="n">
-        <v>102.2608402707796</v>
+        <v>3449.802252060173</v>
       </c>
       <c r="I39" t="n">
-        <v>128.3245134312372</v>
+        <v>3475.865925220631</v>
       </c>
       <c r="J39" t="n">
-        <v>452.8828383974496</v>
+        <v>3800.424250186843</v>
       </c>
       <c r="K39" t="n">
-        <v>1107.588885023173</v>
+        <v>4455.130296812566</v>
       </c>
       <c r="L39" t="n">
-        <v>1107.588885023173</v>
+        <v>4455.130296812566</v>
       </c>
       <c r="M39" t="n">
-        <v>1107.588885023173</v>
+        <v>4455.130296812566</v>
       </c>
       <c r="N39" t="n">
-        <v>1107.588885023173</v>
+        <v>4455.130296812566</v>
       </c>
       <c r="O39" t="n">
-        <v>1107.588885023173</v>
+        <v>4455.130296812566</v>
       </c>
       <c r="P39" t="n">
-        <v>1107.588885023173</v>
+        <v>4455.130296812566</v>
       </c>
       <c r="Q39" t="n">
-        <v>1648.327823655249</v>
+        <v>4995.869235444641</v>
       </c>
       <c r="R39" t="n">
-        <v>1765.500601749588</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S39" t="n">
-        <v>1702.045164197971</v>
+        <v>5049.586575987364</v>
       </c>
       <c r="T39" t="n">
-        <v>1571.866520528573</v>
+        <v>4919.407932317966</v>
       </c>
       <c r="U39" t="n">
-        <v>1395.529973528541</v>
+        <v>4743.071385317934</v>
       </c>
       <c r="V39" t="n">
-        <v>1196.412455590541</v>
+        <v>4543.953867379933</v>
       </c>
       <c r="W39" t="n">
-        <v>1011.089701323735</v>
+        <v>4358.631113113128</v>
       </c>
       <c r="X39" t="n">
-        <v>856.2222655626148</v>
+        <v>4203.763677352008</v>
       </c>
       <c r="Y39" t="n">
-        <v>729.7364863418355</v>
+        <v>4077.277898131229</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1092.659051657336</v>
+        <v>3575.440564248063</v>
       </c>
       <c r="C40" t="n">
-        <v>920.0973401405612</v>
+        <v>3402.878852731288</v>
       </c>
       <c r="D40" t="n">
-        <v>754.2193473420839</v>
+        <v>3237.000859932811</v>
       </c>
       <c r="E40" t="n">
-        <v>584.4613435928212</v>
+        <v>3067.242856183548</v>
       </c>
       <c r="F40" t="n">
-        <v>407.7542895545774</v>
+        <v>2890.535802145304</v>
       </c>
       <c r="G40" t="n">
-        <v>242.1630145804051</v>
+        <v>2724.944527171132</v>
       </c>
       <c r="H40" t="n">
-        <v>102.2608402707796</v>
+        <v>2585.042352861507</v>
       </c>
       <c r="I40" t="n">
-        <v>102.2608402707796</v>
+        <v>2496.382403636182</v>
       </c>
       <c r="J40" t="n">
-        <v>188.8405254354695</v>
+        <v>2582.962088800872</v>
       </c>
       <c r="K40" t="n">
-        <v>463.598980006605</v>
+        <v>2857.720543372007</v>
       </c>
       <c r="L40" t="n">
-        <v>881.8088617745661</v>
+        <v>3275.930425139968</v>
       </c>
       <c r="M40" t="n">
-        <v>1341.292728955479</v>
+        <v>3735.414292320881</v>
       </c>
       <c r="N40" t="n">
-        <v>1783.551532113124</v>
+        <v>4177.673095478525</v>
       </c>
       <c r="O40" t="n">
-        <v>2203.220781338905</v>
+        <v>4597.342344704308</v>
       </c>
       <c r="P40" t="n">
-        <v>2550.727675309247</v>
+        <v>4944.849238674649</v>
       </c>
       <c r="Q40" t="n">
-        <v>2718.920450173579</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="R40" t="n">
-        <v>2718.920450173579</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S40" t="n">
-        <v>2718.920450173579</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="T40" t="n">
-        <v>2594.704009018975</v>
+        <v>4867.162567117437</v>
       </c>
       <c r="U40" t="n">
-        <v>2316.271008272081</v>
+        <v>4588.729566370543</v>
       </c>
       <c r="V40" t="n">
-        <v>2029.315500142511</v>
+        <v>4301.774058240973</v>
       </c>
       <c r="W40" t="n">
-        <v>1757.289095728803</v>
+        <v>4240.070608319529</v>
       </c>
       <c r="X40" t="n">
-        <v>1511.897341062215</v>
+        <v>3994.678853652942</v>
       </c>
       <c r="Y40" t="n">
-        <v>1284.477670376323</v>
+        <v>3767.25918296705</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1790.855915180241</v>
+        <v>1572.921615808473</v>
       </c>
       <c r="C41" t="n">
-        <v>1352.713442363665</v>
+        <v>1572.921615808473</v>
       </c>
       <c r="D41" t="n">
-        <v>916.8036575381091</v>
+        <v>1572.921615808473</v>
       </c>
       <c r="E41" t="n">
-        <v>483.0289126964042</v>
+        <v>1139.146870966768</v>
       </c>
       <c r="F41" t="n">
-        <v>55.16148310561195</v>
+        <v>763.830497617103</v>
       </c>
       <c r="G41" t="n">
-        <v>55.16148310561195</v>
+        <v>362.4326662403668</v>
       </c>
       <c r="H41" t="n">
-        <v>55.16148310561195</v>
+        <v>73.30251168358308</v>
       </c>
       <c r="I41" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358308</v>
       </c>
       <c r="J41" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358308</v>
       </c>
       <c r="K41" t="n">
-        <v>54.74469373275195</v>
+        <v>907.652803641761</v>
       </c>
       <c r="L41" t="n">
-        <v>54.74469373275195</v>
+        <v>1383.198341302822</v>
       </c>
       <c r="M41" t="n">
-        <v>732.2102786755574</v>
+        <v>1383.198341302822</v>
       </c>
       <c r="N41" t="n">
-        <v>1409.675863618363</v>
+        <v>1383.198341302822</v>
       </c>
       <c r="O41" t="n">
-        <v>1513.270315736198</v>
+        <v>2290.316923387163</v>
       </c>
       <c r="P41" t="n">
-        <v>2190.735900679003</v>
+        <v>3118.62679822056</v>
       </c>
       <c r="Q41" t="n">
-        <v>2737.234686637598</v>
+        <v>3665.125584179154</v>
       </c>
       <c r="R41" t="n">
-        <v>2737.234686637598</v>
+        <v>3665.125584179154</v>
       </c>
       <c r="S41" t="n">
-        <v>2737.234686637598</v>
+        <v>3665.125584179154</v>
       </c>
       <c r="T41" t="n">
-        <v>2737.234686637598</v>
+        <v>3445.058357052193</v>
       </c>
       <c r="U41" t="n">
-        <v>2737.234686637598</v>
+        <v>3185.83605436921</v>
       </c>
       <c r="V41" t="n">
-        <v>2737.234686637598</v>
+        <v>2823.219104303036</v>
       </c>
       <c r="W41" t="n">
-        <v>2737.234686637598</v>
+        <v>2418.36364971407</v>
       </c>
       <c r="X41" t="n">
-        <v>2318.092223216909</v>
+        <v>1999.22118629338</v>
       </c>
       <c r="Y41" t="n">
-        <v>2217.155485665149</v>
+        <v>1999.22118629338</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>560.9164387240447</v>
+        <v>579.4742566748758</v>
       </c>
       <c r="C42" t="n">
-        <v>454.459977560687</v>
+        <v>473.0177955115182</v>
       </c>
       <c r="D42" t="n">
-        <v>359.3696887072403</v>
+        <v>377.9275066580714</v>
       </c>
       <c r="E42" t="n">
-        <v>265.249274034194</v>
+        <v>283.8070919850251</v>
       </c>
       <c r="F42" t="n">
-        <v>181.8654356503556</v>
+        <v>200.4232536011867</v>
       </c>
       <c r="G42" t="n">
-        <v>96.48034591653948</v>
+        <v>115.0381638673706</v>
       </c>
       <c r="H42" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358308</v>
       </c>
       <c r="I42" t="n">
-        <v>80.80836689320955</v>
+        <v>99.36618484404067</v>
       </c>
       <c r="J42" t="n">
-        <v>405.3666918594219</v>
+        <v>423.924509810253</v>
       </c>
       <c r="K42" t="n">
-        <v>1060.072738485145</v>
+        <v>1078.630556435977</v>
       </c>
       <c r="L42" t="n">
-        <v>1060.072738485145</v>
+        <v>1078.630556435977</v>
       </c>
       <c r="M42" t="n">
-        <v>1060.072738485145</v>
+        <v>1078.630556435977</v>
       </c>
       <c r="N42" t="n">
-        <v>1060.072738485145</v>
+        <v>1078.630556435977</v>
       </c>
       <c r="O42" t="n">
-        <v>1060.072738485145</v>
+        <v>1078.630556435977</v>
       </c>
       <c r="P42" t="n">
-        <v>1060.072738485145</v>
+        <v>1078.630556435977</v>
       </c>
       <c r="Q42" t="n">
-        <v>1600.811677117221</v>
+        <v>1619.369495068052</v>
       </c>
       <c r="R42" t="n">
-        <v>1717.984455211561</v>
+        <v>1736.542273162392</v>
       </c>
       <c r="S42" t="n">
-        <v>1654.529017659944</v>
+        <v>1673.086835610775</v>
       </c>
       <c r="T42" t="n">
-        <v>1524.350373990545</v>
+        <v>1542.908191941377</v>
       </c>
       <c r="U42" t="n">
-        <v>1348.013826990514</v>
+        <v>1366.571644941345</v>
       </c>
       <c r="V42" t="n">
-        <v>1148.896309052513</v>
+        <v>1167.454127003344</v>
       </c>
       <c r="W42" t="n">
-        <v>963.5735547857071</v>
+        <v>982.1313727365382</v>
       </c>
       <c r="X42" t="n">
-        <v>808.7061190245871</v>
+        <v>827.2639369754182</v>
       </c>
       <c r="Y42" t="n">
-        <v>682.2203398038079</v>
+        <v>700.778157754639</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>764.2385311503645</v>
+        <v>942.0377178031986</v>
       </c>
       <c r="C43" t="n">
-        <v>591.6768196335894</v>
+        <v>769.4760062864235</v>
       </c>
       <c r="D43" t="n">
-        <v>425.7988268351121</v>
+        <v>603.5980134879462</v>
       </c>
       <c r="E43" t="n">
-        <v>256.0408230858494</v>
+        <v>433.8400097386835</v>
       </c>
       <c r="F43" t="n">
-        <v>220.3359687069243</v>
+        <v>257.1329557004397</v>
       </c>
       <c r="G43" t="n">
-        <v>54.74469373275195</v>
+        <v>91.54168072626732</v>
       </c>
       <c r="H43" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358308</v>
       </c>
       <c r="I43" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358308</v>
       </c>
       <c r="J43" t="n">
-        <v>141.3243788974418</v>
+        <v>159.8821968482729</v>
       </c>
       <c r="K43" t="n">
-        <v>416.0828334685774</v>
+        <v>434.6406514194085</v>
       </c>
       <c r="L43" t="n">
-        <v>834.2927152365385</v>
+        <v>852.8505331873696</v>
       </c>
       <c r="M43" t="n">
-        <v>1293.776582417452</v>
+        <v>1312.334400368283</v>
       </c>
       <c r="N43" t="n">
-        <v>1736.035385575096</v>
+        <v>1754.593203525927</v>
       </c>
       <c r="O43" t="n">
-        <v>2155.704634800878</v>
+        <v>2174.262452751709</v>
       </c>
       <c r="P43" t="n">
-        <v>2503.211528771219</v>
+        <v>2521.769346722051</v>
       </c>
       <c r="Q43" t="n">
-        <v>2671.404303635552</v>
+        <v>2689.962121586383</v>
       </c>
       <c r="R43" t="n">
-        <v>2671.404303635552</v>
+        <v>2689.962121586383</v>
       </c>
       <c r="S43" t="n">
-        <v>2512.162934933549</v>
+        <v>2689.962121586383</v>
       </c>
       <c r="T43" t="n">
-        <v>2266.283488512004</v>
+        <v>2444.082675164838</v>
       </c>
       <c r="U43" t="n">
-        <v>1987.850487765109</v>
+        <v>2165.649674417943</v>
       </c>
       <c r="V43" t="n">
-        <v>1700.894979635539</v>
+        <v>1878.694166288373</v>
       </c>
       <c r="W43" t="n">
-        <v>1428.868575221831</v>
+        <v>1606.667761874665</v>
       </c>
       <c r="X43" t="n">
-        <v>1183.476820555243</v>
+        <v>1361.276007208078</v>
       </c>
       <c r="Y43" t="n">
-        <v>956.0571498693516</v>
+        <v>1133.856336522186</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1362.988485589449</v>
+        <v>2052.211145618417</v>
       </c>
       <c r="C44" t="n">
-        <v>924.8460127728722</v>
+        <v>2052.211145618417</v>
       </c>
       <c r="D44" t="n">
-        <v>488.9362279473168</v>
+        <v>1616.301360792861</v>
       </c>
       <c r="E44" t="n">
-        <v>55.16148310561195</v>
+        <v>1191.697927207895</v>
       </c>
       <c r="F44" t="n">
-        <v>55.16148310561195</v>
+        <v>763.830497617103</v>
       </c>
       <c r="G44" t="n">
-        <v>55.16148310561195</v>
+        <v>362.4326662403668</v>
       </c>
       <c r="H44" t="n">
-        <v>55.16148310561195</v>
+        <v>73.30251168358308</v>
       </c>
       <c r="I44" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358308</v>
       </c>
       <c r="J44" t="n">
-        <v>54.74469373275195</v>
+        <v>508.557199136501</v>
       </c>
       <c r="K44" t="n">
-        <v>54.74469373275195</v>
+        <v>1214.044276549766</v>
       </c>
       <c r="L44" t="n">
-        <v>54.74469373275195</v>
+        <v>2121.162858634106</v>
       </c>
       <c r="M44" t="n">
-        <v>666.6506660403358</v>
+        <v>2121.162858634106</v>
       </c>
       <c r="N44" t="n">
-        <v>1344.116250983141</v>
+        <v>2121.162858634106</v>
       </c>
       <c r="O44" t="n">
-        <v>2021.581835925947</v>
+        <v>2121.162858634106</v>
       </c>
       <c r="P44" t="n">
-        <v>2021.581835925947</v>
+        <v>2949.472733467503</v>
       </c>
       <c r="Q44" t="n">
-        <v>2568.080621884541</v>
+        <v>3495.971519426097</v>
       </c>
       <c r="R44" t="n">
-        <v>2737.234686637598</v>
+        <v>3665.125584179154</v>
       </c>
       <c r="S44" t="n">
-        <v>2737.234686637598</v>
+        <v>3665.125584179154</v>
       </c>
       <c r="T44" t="n">
-        <v>2737.234686637598</v>
+        <v>3665.125584179154</v>
       </c>
       <c r="U44" t="n">
-        <v>2737.234686637598</v>
+        <v>3665.125584179154</v>
       </c>
       <c r="V44" t="n">
-        <v>2595.272527299451</v>
+        <v>3302.50863411298</v>
       </c>
       <c r="W44" t="n">
-        <v>2190.417072710485</v>
+        <v>2897.653179524013</v>
       </c>
       <c r="X44" t="n">
-        <v>1771.274609289796</v>
+        <v>2478.510716103324</v>
       </c>
       <c r="Y44" t="n">
-        <v>1362.988485589449</v>
+        <v>2478.510716103324</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>560.9164387240447</v>
+        <v>579.4742566748758</v>
       </c>
       <c r="C45" t="n">
-        <v>454.459977560687</v>
+        <v>473.0177955115182</v>
       </c>
       <c r="D45" t="n">
-        <v>359.3696887072403</v>
+        <v>377.9275066580714</v>
       </c>
       <c r="E45" t="n">
-        <v>265.249274034194</v>
+        <v>283.8070919850251</v>
       </c>
       <c r="F45" t="n">
-        <v>181.8654356503556</v>
+        <v>200.4232536011867</v>
       </c>
       <c r="G45" t="n">
-        <v>96.48034591653948</v>
+        <v>115.0381638673706</v>
       </c>
       <c r="H45" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358308</v>
       </c>
       <c r="I45" t="n">
-        <v>80.80836689320955</v>
+        <v>99.36618484404067</v>
       </c>
       <c r="J45" t="n">
-        <v>405.3666918594219</v>
+        <v>423.924509810253</v>
       </c>
       <c r="K45" t="n">
-        <v>1060.072738485145</v>
+        <v>1078.630556435977</v>
       </c>
       <c r="L45" t="n">
-        <v>1060.072738485145</v>
+        <v>1078.630556435977</v>
       </c>
       <c r="M45" t="n">
-        <v>1060.072738485145</v>
+        <v>1078.630556435977</v>
       </c>
       <c r="N45" t="n">
-        <v>1060.072738485145</v>
+        <v>1078.630556435977</v>
       </c>
       <c r="O45" t="n">
-        <v>1060.072738485145</v>
+        <v>1078.630556435977</v>
       </c>
       <c r="P45" t="n">
-        <v>1060.072738485145</v>
+        <v>1078.630556435977</v>
       </c>
       <c r="Q45" t="n">
-        <v>1600.811677117221</v>
+        <v>1619.369495068052</v>
       </c>
       <c r="R45" t="n">
-        <v>1717.984455211561</v>
+        <v>1736.542273162392</v>
       </c>
       <c r="S45" t="n">
-        <v>1654.529017659944</v>
+        <v>1673.086835610775</v>
       </c>
       <c r="T45" t="n">
-        <v>1524.350373990545</v>
+        <v>1542.908191941377</v>
       </c>
       <c r="U45" t="n">
-        <v>1348.013826990514</v>
+        <v>1366.571644941345</v>
       </c>
       <c r="V45" t="n">
-        <v>1148.896309052513</v>
+        <v>1167.454127003344</v>
       </c>
       <c r="W45" t="n">
-        <v>963.5735547857071</v>
+        <v>982.1313727365382</v>
       </c>
       <c r="X45" t="n">
-        <v>808.7061190245871</v>
+        <v>827.2639369754182</v>
       </c>
       <c r="Y45" t="n">
-        <v>682.2203398038079</v>
+        <v>700.778157754639</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>742.8207098557364</v>
+        <v>1152.360672295464</v>
       </c>
       <c r="C46" t="n">
-        <v>570.2589983389613</v>
+        <v>979.7989607786893</v>
       </c>
       <c r="D46" t="n">
-        <v>404.381005540484</v>
+        <v>813.920967980212</v>
       </c>
       <c r="E46" t="n">
-        <v>404.381005540484</v>
+        <v>644.1629642309493</v>
       </c>
       <c r="F46" t="n">
-        <v>404.381005540484</v>
+        <v>467.4559101927056</v>
       </c>
       <c r="G46" t="n">
-        <v>283.3068172677021</v>
+        <v>301.8646352185332</v>
       </c>
       <c r="H46" t="n">
-        <v>143.4046429580766</v>
+        <v>161.9624609089078</v>
       </c>
       <c r="I46" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358308</v>
       </c>
       <c r="J46" t="n">
-        <v>141.3243788974418</v>
+        <v>159.8821968482729</v>
       </c>
       <c r="K46" t="n">
-        <v>416.0828334685774</v>
+        <v>434.6406514194085</v>
       </c>
       <c r="L46" t="n">
-        <v>834.2927152365385</v>
+        <v>852.8505331873696</v>
       </c>
       <c r="M46" t="n">
-        <v>1293.776582417452</v>
+        <v>1312.334400368283</v>
       </c>
       <c r="N46" t="n">
-        <v>1736.035385575096</v>
+        <v>1754.593203525927</v>
       </c>
       <c r="O46" t="n">
-        <v>2155.704634800878</v>
+        <v>2174.262452751709</v>
       </c>
       <c r="P46" t="n">
-        <v>2503.211528771219</v>
+        <v>2521.769346722051</v>
       </c>
       <c r="Q46" t="n">
-        <v>2671.404303635552</v>
+        <v>2689.962121586383</v>
       </c>
       <c r="R46" t="n">
-        <v>2649.986482340924</v>
+        <v>2668.544300291755</v>
       </c>
       <c r="S46" t="n">
-        <v>2490.74511363892</v>
+        <v>2509.302931589751</v>
       </c>
       <c r="T46" t="n">
-        <v>2244.865667217376</v>
+        <v>2263.423485168206</v>
       </c>
       <c r="U46" t="n">
-        <v>1966.432666470481</v>
+        <v>2263.423485168206</v>
       </c>
       <c r="V46" t="n">
-        <v>1679.477158340911</v>
+        <v>2089.017120780639</v>
       </c>
       <c r="W46" t="n">
-        <v>1407.450753927203</v>
+        <v>1816.990716366931</v>
       </c>
       <c r="X46" t="n">
-        <v>1162.058999260615</v>
+        <v>1571.598961700343</v>
       </c>
       <c r="Y46" t="n">
-        <v>934.6393285747235</v>
+        <v>1344.179291014452</v>
       </c>
     </row>
   </sheetData>
@@ -7979,22 +7981,22 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K2" t="n">
-        <v>684.3086716593996</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L2" t="n">
-        <v>178.4356412673392</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>786.1165328681086</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>684.3086716593994</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q2" t="n">
         <v>552.0189757157522</v>
@@ -8052,13 +8054,13 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>661.3192390158827</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8073,7 +8075,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>0.03656536949847577</v>
       </c>
       <c r="Q3" t="n">
         <v>546.2009481132077</v>
@@ -8216,10 +8218,10 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>684.3086716593996</v>
+        <v>712.6132095083485</v>
       </c>
       <c r="L5" t="n">
-        <v>178.4356412673392</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -8228,10 +8230,10 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>916.2813960447884</v>
       </c>
       <c r="P5" t="n">
-        <v>684.3086716593994</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q5" t="n">
         <v>552.0189757157522</v>
@@ -8292,13 +8294,13 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>916.2813960447885</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8307,13 +8309,13 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>684.3086716593994</v>
+        <v>645.4024255556853</v>
       </c>
       <c r="P6" t="n">
-        <v>3.337509942803763</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -8453,7 +8455,7 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
-        <v>684.3086716593996</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -8465,16 +8467,16 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>178.4356412673392</v>
+        <v>916.2813960447884</v>
       </c>
       <c r="P8" t="n">
-        <v>684.3086716593994</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q8" t="n">
         <v>552.0189757157522</v>
       </c>
       <c r="R8" t="n">
-        <v>170.8626916697543</v>
+        <v>40.69782849307421</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8526,22 +8528,22 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>684.3086716593996</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>763.7587670651194</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>916.2813960447885</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
@@ -8550,10 +8552,10 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>523.2115154696905</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8690,7 +8692,7 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K11" t="n">
-        <v>684.3086716593996</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -8702,16 +8704,16 @@
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>178.4356412673392</v>
+        <v>916.2813960447884</v>
       </c>
       <c r="P11" t="n">
-        <v>684.3086716593994</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q11" t="n">
         <v>552.0189757157522</v>
       </c>
       <c r="R11" t="n">
-        <v>170.8626916697543</v>
+        <v>40.69782849307421</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8763,13 +8765,13 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>3.33750994280372</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J12" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -8784,7 +8786,7 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>684.3086716593995</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>546.2009481132077</v>
@@ -8927,10 +8929,10 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K14" t="n">
-        <v>684.3086716593996</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L14" t="n">
-        <v>178.4356412673392</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
@@ -8939,16 +8941,16 @@
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>916.2813960447884</v>
       </c>
       <c r="P14" t="n">
-        <v>684.3086716593994</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q14" t="n">
         <v>552.0189757157522</v>
       </c>
       <c r="R14" t="n">
-        <v>170.8626916697543</v>
+        <v>40.69782849307421</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9000,13 +9002,13 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>3.33750994280372</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J15" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9021,7 +9023,7 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>684.3086716593995</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>546.2009481132077</v>
@@ -9164,16 +9166,16 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>935.0031416802861</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N17" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831379</v>
@@ -9237,16 +9239,16 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J18" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L18" t="n">
-        <v>0.03656536949893052</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -9398,19 +9400,19 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K20" t="n">
-        <v>459.5978749662608</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L20" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N20" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831379</v>
@@ -9422,7 +9424,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9492,16 +9494,16 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>1024.042030119497</v>
+        <v>187.4796750234296</v>
       </c>
       <c r="P21" t="n">
-        <v>655.9981329904112</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9644,10 +9646,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
         <v>143.4079146352447</v>
-      </c>
-      <c r="N23" t="n">
-        <v>0</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831379</v>
@@ -9711,34 +9713,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>1210.83316575</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>469.2069973599082</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9872,16 +9874,16 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>702.7389601124037</v>
       </c>
       <c r="M26" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
         <v>1137.102003471159</v>
@@ -9893,7 +9895,7 @@
         <v>836.6766412458549</v>
       </c>
       <c r="Q26" t="n">
-        <v>489.1496219844266</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -9948,13 +9950,13 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J27" t="n">
-        <v>46.07100690393288</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -9969,10 +9971,10 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R27" t="n">
         <v>118.3563415094341</v>
@@ -10109,19 +10111,19 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
         <v>842.7780726850283</v>
       </c>
       <c r="L29" t="n">
-        <v>1085.919157831171</v>
+        <v>702.7389601124037</v>
       </c>
       <c r="M29" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O29" t="n">
         <v>990.0804712831379</v>
@@ -10133,7 +10135,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R29" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10185,34 +10187,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>655.9981329904112</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>1024.042030119497</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10355,16 +10357,16 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P32" t="n">
-        <v>801.4298400828725</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q32" t="n">
         <v>552.0189757157522</v>
@@ -10422,16 +10424,16 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L33" t="n">
-        <v>852.0369646460714</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
@@ -10443,13 +10445,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10592,10 +10594,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>314.2706063049986</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831379</v>
@@ -10607,7 +10609,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R35" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10659,16 +10661,16 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L36" t="n">
-        <v>964.1848977889938</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -10677,16 +10679,16 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>715.8552653209142</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10820,7 +10822,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
         <v>842.7780726850283</v>
@@ -10829,22 +10831,22 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N38" t="n">
-        <v>143.4079146352456</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O38" t="n">
-        <v>990.0804712831379</v>
+        <v>826.8607034446131</v>
       </c>
       <c r="P38" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11060,22 +11062,22 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>480.349027940466</v>
       </c>
       <c r="M41" t="n">
-        <v>684.3086716593995</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>684.3086716593996</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>104.640860725086</v>
+        <v>916.2813960447884</v>
       </c>
       <c r="P41" t="n">
-        <v>684.3086716593994</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q41" t="n">
         <v>552.0189757157522</v>
@@ -11294,25 +11296,25 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>712.6132095083485</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>916.2813960447884</v>
       </c>
       <c r="M44" t="n">
-        <v>618.0868407147311</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>684.3086716593995</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>684.3086716593994</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q44" t="n">
         <v>552.0189757157522</v>
@@ -23255,25 +23257,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>27.88960744610034</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>352.9961495317503</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0.4126214791313976</v>
@@ -23306,13 +23308,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23324,7 +23326,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="12">
@@ -23434,7 +23436,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23467,10 +23469,10 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>120.4463752142717</v>
       </c>
       <c r="U13" t="n">
-        <v>208.2197249473423</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23492,22 +23494,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>174.2580037029446</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H14" t="n">
         <v>286.2388530112159</v>
@@ -23552,7 +23554,7 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>163.4212026217408</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -23665,13 +23667,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>139.592177662726</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23701,13 +23703,13 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S16" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>208.2197249473423</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23890,13 +23892,13 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>131.2385495991671</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -23908,7 +23910,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23938,10 +23940,10 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>229.4233680290251</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -24142,10 +24144,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,19 +24174,19 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>139.5921776627258</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>111.4236523045816</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24379,10 +24381,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24412,10 +24414,10 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S25" t="n">
-        <v>157.6489550149833</v>
+        <v>139.5921776627253</v>
       </c>
       <c r="T25" t="n">
-        <v>208.2197249473433</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24850,13 +24852,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>160.795820744408</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24892,10 +24894,10 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>90.22000922290115</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -25090,10 +25092,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,16 +25122,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U34" t="n">
-        <v>139.5921776627258</v>
+        <v>143.6516710866791</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25315,22 +25317,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25360,7 +25362,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S37" t="n">
-        <v>26.70948359397272</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25567,7 +25569,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25600,7 +25602,7 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T40" t="n">
-        <v>120.4463752142717</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25609,7 +25611,7 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>208.2197249473416</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25628,25 +25630,25 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>52.02554567871607</v>
       </c>
       <c r="G41" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25679,22 +25681,22 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T41" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>304.2758922871012</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="42">
@@ -25795,13 +25797,13 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>139.5921776627255</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>138.5031525665292</v>
+        <v>120.4463752142718</v>
       </c>
       <c r="I43" t="n">
         <v>87.77334973307141</v>
@@ -25834,7 +25836,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25862,28 +25864,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>9.079598144171598</v>
       </c>
       <c r="F44" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25922,7 +25924,7 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V44" t="n">
-        <v>218.4482428207465</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -25931,7 +25933,7 @@
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="45">
@@ -26029,13 +26031,13 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>44.07191583437654</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -26077,10 +26079,10 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>111.4236523045825</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>647490.6463237348</v>
+        <v>651146.3490073419</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>647490.6463237348</v>
+        <v>651146.3490073419</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>647490.6463237348</v>
+        <v>651146.3490073419</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>420987.783455503</v>
+        <v>508842.9098438894</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>420987.783455503</v>
+        <v>508842.9098438894</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>645935.4077208091</v>
+        <v>645935.4077208092</v>
       </c>
     </row>
     <row r="9">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>645935.407720809</v>
+        <v>645935.4077208091</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>645935.407720809</v>
+        <v>645935.4077208091</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>420987.783455503</v>
+        <v>508842.9098438895</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>420987.7834555031</v>
+        <v>508842.9098438893</v>
       </c>
     </row>
   </sheetData>
@@ -26311,22 +26313,22 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>308284.7089369848</v>
+      </c>
+      <c r="C2" t="n">
+        <v>308284.7089369848</v>
+      </c>
+      <c r="D2" t="n">
         <v>308284.7089369849</v>
       </c>
-      <c r="C2" t="n">
-        <v>308284.7089369849</v>
-      </c>
-      <c r="D2" t="n">
-        <v>308284.7089369848</v>
-      </c>
       <c r="E2" t="n">
-        <v>197442.8824269992</v>
+        <v>238646.8557293379</v>
       </c>
       <c r="F2" t="n">
-        <v>197442.8824269991</v>
+        <v>238646.855729338</v>
       </c>
       <c r="G2" t="n">
-        <v>302943.1108789776</v>
+        <v>302943.1108789775</v>
       </c>
       <c r="H2" t="n">
         <v>302943.1108789776</v>
@@ -26341,7 +26343,7 @@
         <v>302943.1108789775</v>
       </c>
       <c r="L2" t="n">
-        <v>302943.1108789775</v>
+        <v>302943.1108789776</v>
       </c>
       <c r="M2" t="n">
         <v>302943.1108789775</v>
@@ -26350,10 +26352,10 @@
         <v>302943.1108789776</v>
       </c>
       <c r="O2" t="n">
-        <v>197442.8824269991</v>
+        <v>238646.855729338</v>
       </c>
       <c r="P2" t="n">
-        <v>197442.8824269991</v>
+        <v>238646.8557293379</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>229327.5749725129</v>
+        <v>307066.9702867177</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26378,7 +26380,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>162793.2877984415</v>
+        <v>99213.04363527209</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>179045.2580876519</v>
+        <v>239739.5295867427</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26415,19 +26417,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>128068.9242817153</v>
+        <v>90933.65223093437</v>
       </c>
       <c r="C4" t="n">
-        <v>128068.9242817153</v>
+        <v>90933.6522309344</v>
       </c>
       <c r="D4" t="n">
-        <v>128068.9242817153</v>
+        <v>90933.65223093439</v>
       </c>
       <c r="E4" t="n">
-        <v>18043.07181607992</v>
+        <v>21808.44558019528</v>
       </c>
       <c r="F4" t="n">
-        <v>18043.07181607991</v>
+        <v>21808.44558019528</v>
       </c>
       <c r="G4" t="n">
         <v>27684.07875020268</v>
@@ -26451,13 +26453,13 @@
         <v>27684.07875020268</v>
       </c>
       <c r="N4" t="n">
-        <v>27684.07875020268</v>
+        <v>27684.07875020269</v>
       </c>
       <c r="O4" t="n">
-        <v>18043.07181607991</v>
+        <v>21808.44558019528</v>
       </c>
       <c r="P4" t="n">
-        <v>18043.07181607992</v>
+        <v>21808.44558019529</v>
       </c>
     </row>
     <row r="5">
@@ -26467,19 +26469,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>75233.56723689148</v>
+        <v>89337.50887952314</v>
       </c>
       <c r="C5" t="n">
-        <v>75233.56723689148</v>
+        <v>89337.50887952314</v>
       </c>
       <c r="D5" t="n">
-        <v>75233.56723689148</v>
+        <v>89337.50887952314</v>
       </c>
       <c r="E5" t="n">
-        <v>41605.96723689148</v>
+        <v>55709.90887952314</v>
       </c>
       <c r="F5" t="n">
-        <v>41605.96723689148</v>
+        <v>55709.90887952314</v>
       </c>
       <c r="G5" t="n">
         <v>77718.23860579252</v>
@@ -26506,10 +26508,10 @@
         <v>77718.23860579252</v>
       </c>
       <c r="O5" t="n">
-        <v>41605.96723689148</v>
+        <v>55709.90887952314</v>
       </c>
       <c r="P5" t="n">
-        <v>41605.96723689148</v>
+        <v>55709.90887952314</v>
       </c>
     </row>
     <row r="6">
@@ -26519,22 +26521,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-124345.3575541348</v>
+        <v>-179053.4224601904</v>
       </c>
       <c r="C6" t="n">
-        <v>104982.2174183781</v>
+        <v>128013.5478265272</v>
       </c>
       <c r="D6" t="n">
-        <v>104982.217418378</v>
+        <v>128013.5478265274</v>
       </c>
       <c r="E6" t="n">
-        <v>137793.8433740278</v>
+        <v>161128.5012696195</v>
       </c>
       <c r="F6" t="n">
-        <v>137793.8433740277</v>
+        <v>161128.5012696195</v>
       </c>
       <c r="G6" t="n">
-        <v>34747.50572454093</v>
+        <v>98327.74988771023</v>
       </c>
       <c r="H6" t="n">
         <v>197540.7935229824</v>
@@ -26543,13 +26545,13 @@
         <v>197540.7935229823</v>
       </c>
       <c r="J6" t="n">
-        <v>18495.5354353304</v>
+        <v>-42198.73606376034</v>
       </c>
       <c r="K6" t="n">
         <v>197540.7935229823</v>
       </c>
       <c r="L6" t="n">
-        <v>197540.7935229823</v>
+        <v>197540.7935229824</v>
       </c>
       <c r="M6" t="n">
         <v>197540.7935229823</v>
@@ -26558,10 +26560,10 @@
         <v>197540.7935229824</v>
       </c>
       <c r="O6" t="n">
-        <v>137793.8433740278</v>
+        <v>161128.5012696196</v>
       </c>
       <c r="P6" t="n">
-        <v>137793.8433740277</v>
+        <v>161128.5012696195</v>
       </c>
     </row>
   </sheetData>
@@ -26787,19 +26789,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>684.3086716593995</v>
+        <v>916.2813960447886</v>
       </c>
       <c r="C4" t="n">
-        <v>684.3086716593995</v>
+        <v>916.2813960447885</v>
       </c>
       <c r="D4" t="n">
-        <v>684.3086716593995</v>
+        <v>916.2813960447885</v>
       </c>
       <c r="E4" t="n">
-        <v>684.3086716593995</v>
+        <v>916.2813960447885</v>
       </c>
       <c r="F4" t="n">
-        <v>684.3086716593995</v>
+        <v>916.2813960447885</v>
       </c>
       <c r="G4" t="n">
         <v>1278.260503384745</v>
@@ -26826,10 +26828,10 @@
         <v>1278.260503384745</v>
       </c>
       <c r="O4" t="n">
-        <v>684.3086716593995</v>
+        <v>916.2813960447885</v>
       </c>
       <c r="P4" t="n">
-        <v>684.3086716593995</v>
+        <v>916.2813960447885</v>
       </c>
     </row>
   </sheetData>
@@ -27009,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>684.3086716593995</v>
+        <v>916.2813960447886</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27024,7 +27026,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>593.9518317253459</v>
+        <v>361.9791073399568</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27033,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>684.3086716593995</v>
+        <v>916.2813960447886</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27255,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>684.3086716593995</v>
+        <v>916.2813960447886</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27270,7 +27272,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>593.9518317253459</v>
+        <v>361.9791073399568</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27376,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>400</v>
+        <v>284.6296301971989</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -27388,10 +27390,10 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>161.3002505071996</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>286.2388530112159</v>
@@ -27427,13 +27429,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>217.8665548556918</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V2" t="n">
         <v>358.9907805655117</v>
@@ -27445,7 +27447,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27540,7 +27542,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>84.63380825304822</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -27549,10 +27551,10 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -27585,10 +27587,10 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>229.4233680290247</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -27613,28 +27615,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>338.1575859284035</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>286.2388530112159</v>
       </c>
       <c r="I5" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,16 +27666,16 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -27682,7 +27684,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>285.0422516763309</v>
       </c>
     </row>
     <row r="6">
@@ -27771,19 +27773,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>44.07191583437655</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -27828,7 +27830,7 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>197.1718905122107</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -27856,22 +27858,22 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>304.6701708510468</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>286.2388530112159</v>
       </c>
       <c r="I8" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27904,19 +27906,19 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T8" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>276.7235311101745</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28026,7 +28028,7 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -28056,19 +28058,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>227.3655273957966</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>143.651671086679</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -34699,22 +34701,22 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K2" t="n">
-        <v>684.3086716593996</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L2" t="n">
-        <v>178.4356412673392</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>786.1165328681086</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>684.3086716593994</v>
+        <v>836.6766412458551</v>
       </c>
       <c r="Q2" t="n">
         <v>552.0189757157523</v>
@@ -34772,13 +34774,13 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>26.32694258632091</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>327.8366918850629</v>
+        <v>327.8366918850631</v>
       </c>
       <c r="K3" t="n">
-        <v>661.3192390158827</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -34793,7 +34795,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>0.03656536949847577</v>
       </c>
       <c r="Q3" t="n">
         <v>546.2009481132077</v>
@@ -34854,7 +34856,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K4" t="n">
         <v>277.5337924960966</v>
@@ -34869,7 +34871,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O4" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P4" t="n">
         <v>351.017064616507</v>
@@ -34936,10 +34938,10 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>684.3086716593996</v>
+        <v>712.6132095083485</v>
       </c>
       <c r="L5" t="n">
-        <v>178.4356412673392</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -34948,10 +34950,10 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>916.2813960447884</v>
       </c>
       <c r="P5" t="n">
-        <v>684.3086716593994</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q5" t="n">
         <v>552.0189757157523</v>
@@ -35012,13 +35014,13 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>916.2813960447885</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -35027,13 +35029,13 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>684.3086716593994</v>
+        <v>645.4024255556853</v>
       </c>
       <c r="P6" t="n">
-        <v>3.337509942803763</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -35106,7 +35108,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P7" t="n">
         <v>351.017064616507</v>
@@ -35173,7 +35175,7 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
-        <v>684.3086716593996</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -35185,16 +35187,16 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>178.4356412673392</v>
+        <v>916.2813960447884</v>
       </c>
       <c r="P8" t="n">
-        <v>684.3086716593994</v>
+        <v>836.6766412458551</v>
       </c>
       <c r="Q8" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R8" t="n">
-        <v>170.8626916697544</v>
+        <v>40.69782849307421</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35246,22 +35248,22 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>684.3086716593996</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>763.7587670651194</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>916.2813960447885</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
@@ -35270,10 +35272,10 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>523.2115154696905</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35343,7 +35345,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P10" t="n">
         <v>351.017064616507</v>
@@ -35410,7 +35412,7 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K11" t="n">
-        <v>684.3086716593996</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -35422,16 +35424,16 @@
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>178.4356412673392</v>
+        <v>916.2813960447884</v>
       </c>
       <c r="P11" t="n">
-        <v>684.3086716593994</v>
+        <v>836.6766412458551</v>
       </c>
       <c r="Q11" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R11" t="n">
-        <v>170.8626916697544</v>
+        <v>40.69782849307421</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35483,13 +35485,13 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>3.33750994280372</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J12" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -35504,7 +35506,7 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>684.3086716593995</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>546.2009481132077</v>
@@ -35580,7 +35582,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O13" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P13" t="n">
         <v>351.017064616507</v>
@@ -35647,10 +35649,10 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K14" t="n">
-        <v>684.3086716593996</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L14" t="n">
-        <v>178.4356412673392</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
@@ -35659,16 +35661,16 @@
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>916.2813960447884</v>
       </c>
       <c r="P14" t="n">
-        <v>684.3086716593994</v>
+        <v>836.6766412458551</v>
       </c>
       <c r="Q14" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R14" t="n">
-        <v>170.8626916697544</v>
+        <v>40.69782849307421</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,13 +35722,13 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>3.33750994280372</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J15" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -35741,7 +35743,7 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>684.3086716593995</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>546.2009481132077</v>
@@ -35817,7 +35819,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O16" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P16" t="n">
         <v>351.017064616507</v>
@@ -35884,16 +35886,16 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>935.0031416802861</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N17" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831377</v>
@@ -35957,16 +35959,16 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J18" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>687.6096162327043</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L18" t="n">
-        <v>0.03656536949893052</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -36118,19 +36120,19 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K20" t="n">
-        <v>459.5978749662608</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L20" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N20" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831377</v>
@@ -36142,7 +36144,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36212,16 +36214,16 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>1024.042030119497</v>
+        <v>187.4796750234296</v>
       </c>
       <c r="P21" t="n">
-        <v>655.9981329904112</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,13 +36278,13 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908057</v>
       </c>
       <c r="K22" t="n">
-        <v>277.5337924960966</v>
+        <v>277.5337924960963</v>
       </c>
       <c r="L22" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080414</v>
       </c>
       <c r="M22" t="n">
         <v>464.1251183645586</v>
@@ -36291,13 +36293,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O22" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512947</v>
       </c>
       <c r="P22" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q22" t="n">
-        <v>169.8916917821539</v>
+        <v>169.8916917821534</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36364,10 +36366,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
         <v>143.4079146352447</v>
-      </c>
-      <c r="N23" t="n">
-        <v>0</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831377</v>
@@ -36431,34 +36433,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>1210.83316575</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>469.2069973599082</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,13 +36515,13 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908057</v>
       </c>
       <c r="K25" t="n">
-        <v>277.5337924960966</v>
+        <v>277.5337924960963</v>
       </c>
       <c r="L25" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080414</v>
       </c>
       <c r="M25" t="n">
         <v>464.1251183645586</v>
@@ -36528,13 +36530,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O25" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512947</v>
       </c>
       <c r="P25" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q25" t="n">
-        <v>169.8916917821539</v>
+        <v>169.8916917821534</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36592,16 +36594,16 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>702.7389601124037</v>
       </c>
       <c r="M26" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
         <v>1137.102003471159</v>
@@ -36610,10 +36612,10 @@
         <v>990.0804712831377</v>
       </c>
       <c r="P26" t="n">
-        <v>836.6766412458551</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q26" t="n">
-        <v>489.1496219844266</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -36668,13 +36670,13 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J27" t="n">
-        <v>46.07100690393288</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -36689,10 +36691,10 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R27" t="n">
         <v>118.3563415094341</v>
@@ -36829,19 +36831,19 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>842.7780726850282</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L29" t="n">
-        <v>1085.919157831171</v>
+        <v>702.7389601124037</v>
       </c>
       <c r="M29" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O29" t="n">
         <v>990.0804712831377</v>
@@ -36853,7 +36855,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R29" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,34 +36907,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>655.9981329904112</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>1024.042030119497</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37075,16 +37077,16 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P32" t="n">
-        <v>801.4298400828725</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q32" t="n">
         <v>552.0189757157523</v>
@@ -37142,16 +37144,16 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L33" t="n">
-        <v>852.0369646460714</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
@@ -37163,13 +37165,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37312,10 +37314,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>314.2706063049986</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831377</v>
@@ -37327,7 +37329,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R35" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,16 +37381,16 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L36" t="n">
-        <v>964.1848977889938</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -37397,16 +37399,16 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>715.8552653209142</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37540,31 +37542,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>842.7780726850282</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L38" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N38" t="n">
-        <v>143.4079146352456</v>
+        <v>1137.102003471158</v>
       </c>
       <c r="O38" t="n">
-        <v>990.0804712831377</v>
+        <v>826.8607034446131</v>
       </c>
       <c r="P38" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,10 +37618,10 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>26.32694258632081</v>
+        <v>26.32694258632091</v>
       </c>
       <c r="J39" t="n">
-        <v>327.836691885063</v>
+        <v>327.8366918850629</v>
       </c>
       <c r="K39" t="n">
         <v>661.3192390158824</v>
@@ -37640,7 +37642,7 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>546.2009481132077</v>
+        <v>546.2009481132072</v>
       </c>
       <c r="R39" t="n">
         <v>118.3563415094341</v>
@@ -37698,13 +37700,13 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908057</v>
       </c>
       <c r="K40" t="n">
-        <v>277.5337924960966</v>
+        <v>277.5337924960963</v>
       </c>
       <c r="L40" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080414</v>
       </c>
       <c r="M40" t="n">
         <v>464.1251183645586</v>
@@ -37713,13 +37715,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O40" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512947</v>
       </c>
       <c r="P40" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q40" t="n">
-        <v>169.8916917821539</v>
+        <v>169.8916917821534</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37780,22 +37782,22 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>480.349027940466</v>
       </c>
       <c r="M41" t="n">
-        <v>684.3086716593995</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>684.3086716593996</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>104.640860725086</v>
+        <v>916.2813960447884</v>
       </c>
       <c r="P41" t="n">
-        <v>684.3086716593994</v>
+        <v>836.6766412458551</v>
       </c>
       <c r="Q41" t="n">
         <v>552.0189757157523</v>
@@ -37950,7 +37952,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O43" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P43" t="n">
         <v>351.017064616507</v>
@@ -38014,25 +38016,25 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>712.6132095083485</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>916.2813960447884</v>
       </c>
       <c r="M44" t="n">
-        <v>618.0868407147311</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>684.3086716593995</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>684.3086716593994</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q44" t="n">
         <v>552.0189757157523</v>
@@ -38187,7 +38189,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O46" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P46" t="n">
         <v>351.017064616507</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_2_23.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_2_23.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>916175.0641245048</v>
+        <v>915382.1531866435</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1396887.814324549</v>
+        <v>1396887.814324548</v>
       </c>
     </row>
     <row r="9">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>137.4069445828598</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C2" t="n">
         <v>433.7610480884109</v>
@@ -670,16 +670,16 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F2" t="n">
-        <v>423.5887552948843</v>
+        <v>400.8791569038337</v>
       </c>
       <c r="G2" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,10 +709,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -816,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>189.9004325317972</v>
+        <v>27.9735834668218</v>
       </c>
       <c r="C4" t="n">
         <v>170.8360944016073</v>
@@ -867,10 +867,10 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T4" t="n">
-        <v>13.99728392830462</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U4" t="n">
         <v>275.6486707394257</v>
@@ -885,7 +885,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y4" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -901,7 +901,7 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D5" t="n">
-        <v>431.5506869772999</v>
+        <v>193.6328498437155</v>
       </c>
       <c r="E5" t="n">
         <v>429.4369973932878</v>
@@ -910,13 +910,13 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G5" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,25 +946,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W5" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X5" t="n">
-        <v>414.9510387864824</v>
+        <v>14.9510387864824</v>
       </c>
       <c r="Y5" t="n">
-        <v>119.1610107870122</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="6">
@@ -1056,7 +1056,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>164.2192128704925</v>
@@ -1110,7 +1110,7 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U7" t="n">
-        <v>78.47678022721499</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V7" t="n">
         <v>284.0859530482738</v>
@@ -1122,7 +1122,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y7" t="n">
-        <v>225.1454739790328</v>
+        <v>198.8096778684291</v>
       </c>
     </row>
     <row r="8">
@@ -1150,7 +1150,7 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I8" t="n">
         <v>0.4126214791313976</v>
@@ -1183,13 +1183,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T8" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0.8069000430770075</v>
       </c>
       <c r="X8" t="n">
-        <v>138.2275076763079</v>
+        <v>243.669934098937</v>
       </c>
       <c r="Y8" t="n">
         <v>404.2032624633431</v>
@@ -1338,19 +1338,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>35.20092700998642</v>
       </c>
       <c r="U10" t="n">
         <v>275.6486707394257</v>
       </c>
       <c r="V10" t="n">
-        <v>140.4342819615948</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W10" t="n">
         <v>269.3061403695714</v>
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>394.1469673339583</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C11" t="n">
         <v>433.7610480884109</v>
@@ -1384,7 +1384,7 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G11" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>286.2388530112159</v>
@@ -1429,16 +1429,16 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>358.9907805655117</v>
+        <v>310.1376249756335</v>
       </c>
       <c r="W11" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="12">
@@ -1545,7 +1545,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H13" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1578,10 +1578,10 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T13" t="n">
-        <v>122.9742767430576</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U13" t="n">
         <v>275.6486707394257</v>
@@ -1606,13 +1606,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>433.7610480884109</v>
       </c>
       <c r="D14" t="n">
-        <v>431.5506869772999</v>
+        <v>421.4943918479169</v>
       </c>
       <c r="E14" t="n">
         <v>429.4369973932878</v>
@@ -1621,10 +1621,10 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1666,13 +1666,13 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>195.569577943771</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W14" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X14" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>404.2032624633431</v>
@@ -1779,7 +1779,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G16" t="n">
-        <v>24.34318456170461</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1815,7 +1815,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T16" t="n">
         <v>243.4206519573293</v>
@@ -1894,13 +1894,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>82.81535507800233</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T17" t="n">
         <v>217.8665548556918</v>
       </c>
       <c r="U17" t="n">
-        <v>256.6300796561533</v>
+        <v>256.6300796561544</v>
       </c>
       <c r="V17" t="n">
         <v>358.9907805655117</v>
@@ -2004,13 +2004,13 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C19" t="n">
-        <v>39.5975448024402</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D19" t="n">
         <v>164.2192128704925</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F19" t="n">
         <v>174.9399834978613</v>
@@ -2019,7 +2019,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H19" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2049,10 +2049,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T19" t="n">
         <v>243.4206519573293</v>
@@ -2140,7 +2140,7 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V20" t="n">
-        <v>358.9907805655127</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W20" t="n">
         <v>400.806900043077</v>
@@ -2253,13 +2253,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G22" t="n">
-        <v>163.9353622244306</v>
+        <v>24.34318456170439</v>
       </c>
       <c r="H22" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>157.6489550149833</v>
@@ -2295,10 +2295,10 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V22" t="n">
-        <v>172.6623007436922</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W22" t="n">
         <v>269.3061403695714</v>
@@ -2493,7 +2493,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>18.05677735225717</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2526,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>18.05677735225796</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>243.4206519573293</v>
@@ -2724,13 +2724,13 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F28" t="n">
-        <v>39.57637241135472</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H28" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2760,10 +2760,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T28" t="n">
         <v>243.4206519573293</v>
@@ -2964,13 +2964,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G31" t="n">
-        <v>163.9353622244306</v>
+        <v>24.34318456170439</v>
       </c>
       <c r="H31" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3006,10 +3006,10 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V31" t="n">
-        <v>193.8659438253727</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W31" t="n">
         <v>269.3061403695714</v>
@@ -3201,13 +3201,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G34" t="n">
-        <v>163.9353622244306</v>
+        <v>160.788496495006</v>
       </c>
       <c r="H34" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3237,13 +3237,13 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S34" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U34" t="n">
-        <v>131.9969996527466</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V34" t="n">
         <v>284.0859530482738</v>
@@ -3511,7 +3511,7 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E38" t="n">
-        <v>429.4369973932878</v>
+        <v>429.4369973932889</v>
       </c>
       <c r="F38" t="n">
         <v>423.5887552948843</v>
@@ -3556,7 +3556,7 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T38" t="n">
-        <v>217.8665548556926</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U38" t="n">
         <v>256.6300796561533</v>
@@ -3678,10 +3678,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H40" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>87.77334973307141</v>
+        <v>18.05677735225717</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3723,7 +3723,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W40" t="n">
-        <v>61.08641542222974</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X40" t="n">
         <v>242.9378371199217</v>
@@ -3739,19 +3739,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E41" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F41" t="n">
-        <v>371.5632096161683</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G41" t="n">
         <v>397.3838530629687</v>
@@ -3760,7 +3760,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3796,19 +3796,19 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U41" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>358.9907805655117</v>
+        <v>116.5111703579002</v>
       </c>
       <c r="W41" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="42">
@@ -3915,7 +3915,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H43" t="n">
-        <v>18.0567773522574</v>
+        <v>18.05677735225737</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3976,16 +3976,16 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D44" t="n">
         <v>431.5506869772999</v>
       </c>
       <c r="E44" t="n">
-        <v>420.3573992491162</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F44" t="n">
         <v>423.5887552948843</v>
@@ -3997,7 +3997,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4033,19 +4033,19 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V44" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>400.806900043077</v>
+        <v>77.74764555743842</v>
       </c>
       <c r="X44" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="45">
@@ -4149,10 +4149,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G46" t="n">
-        <v>163.9353622244306</v>
+        <v>94.21878984361656</v>
       </c>
       <c r="H46" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>87.77334973307141</v>
@@ -4182,19 +4182,19 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V46" t="n">
-        <v>172.6623007436913</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W46" t="n">
         <v>269.3061403695714</v>
@@ -4306,28 +4306,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2210.394775134949</v>
+        <v>1786.474744857284</v>
       </c>
       <c r="C2" t="n">
-        <v>1772.252302318372</v>
+        <v>1348.332272040707</v>
       </c>
       <c r="D2" t="n">
-        <v>1336.342517492816</v>
+        <v>912.4224872151517</v>
       </c>
       <c r="E2" t="n">
-        <v>902.5677726511115</v>
+        <v>478.6477423734469</v>
       </c>
       <c r="F2" t="n">
-        <v>474.7003430603192</v>
+        <v>73.7193010564431</v>
       </c>
       <c r="G2" t="n">
-        <v>73.30251168358309</v>
+        <v>73.7193010564431</v>
       </c>
       <c r="H2" t="n">
-        <v>73.30251168358309</v>
+        <v>73.7193010564431</v>
       </c>
       <c r="I2" t="n">
-        <v>73.30251168358309</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="J2" t="n">
         <v>508.557199136501</v>
@@ -4342,40 +4342,40 @@
         <v>1342.907491094679</v>
       </c>
       <c r="N2" t="n">
-        <v>2121.162858634106</v>
+        <v>1342.907491094679</v>
       </c>
       <c r="O2" t="n">
-        <v>2121.162858634106</v>
+        <v>2250.02607317902</v>
       </c>
       <c r="P2" t="n">
-        <v>2949.472733467503</v>
+        <v>3078.335948012416</v>
       </c>
       <c r="Q2" t="n">
         <v>3495.971519426098</v>
       </c>
       <c r="R2" t="n">
-        <v>3665.125584179154</v>
+        <v>3665.125584179155</v>
       </c>
       <c r="S2" t="n">
-        <v>3581.473710362991</v>
+        <v>3665.125584179155</v>
       </c>
       <c r="T2" t="n">
-        <v>3581.473710362991</v>
+        <v>3445.058357052194</v>
       </c>
       <c r="U2" t="n">
-        <v>3581.473710362991</v>
+        <v>3445.058357052194</v>
       </c>
       <c r="V2" t="n">
-        <v>3581.473710362991</v>
+        <v>3445.058357052194</v>
       </c>
       <c r="W2" t="n">
-        <v>3176.618255774025</v>
+        <v>3040.202902463227</v>
       </c>
       <c r="X2" t="n">
-        <v>2757.475792353336</v>
+        <v>2621.060439042538</v>
       </c>
       <c r="Y2" t="n">
-        <v>2349.189668652989</v>
+        <v>2212.774315342192</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2508.057567691639</v>
+        <v>579.4742566748758</v>
       </c>
       <c r="C3" t="n">
-        <v>2401.601106528281</v>
+        <v>473.0177955115182</v>
       </c>
       <c r="D3" t="n">
-        <v>2306.510817674834</v>
+        <v>377.9275066580714</v>
       </c>
       <c r="E3" t="n">
-        <v>2212.390403001788</v>
+        <v>283.8070919850251</v>
       </c>
       <c r="F3" t="n">
-        <v>2129.00656461795</v>
+        <v>200.4232536011867</v>
       </c>
       <c r="G3" t="n">
-        <v>2043.621474884133</v>
+        <v>115.0381638673706</v>
       </c>
       <c r="H3" t="n">
-        <v>2001.885822700346</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="I3" t="n">
-        <v>2001.885822700346</v>
+        <v>99.3661848440407</v>
       </c>
       <c r="J3" t="n">
-        <v>2326.444147666558</v>
+        <v>423.924509810253</v>
       </c>
       <c r="K3" t="n">
-        <v>3007.177667736936</v>
+        <v>423.924509810253</v>
       </c>
       <c r="L3" t="n">
-        <v>3007.177667736936</v>
+        <v>423.924509810253</v>
       </c>
       <c r="M3" t="n">
-        <v>3007.177667736936</v>
+        <v>423.924509810253</v>
       </c>
       <c r="N3" t="n">
-        <v>3007.177667736936</v>
+        <v>423.924509810253</v>
       </c>
       <c r="O3" t="n">
-        <v>3007.177667736936</v>
+        <v>423.924509810253</v>
       </c>
       <c r="P3" t="n">
-        <v>3007.213867452739</v>
+        <v>1078.630556435977</v>
       </c>
       <c r="Q3" t="n">
-        <v>3547.952806084815</v>
+        <v>1619.369495068052</v>
       </c>
       <c r="R3" t="n">
-        <v>3665.125584179154</v>
+        <v>1736.542273162392</v>
       </c>
       <c r="S3" t="n">
-        <v>3601.670146627538</v>
+        <v>1673.086835610775</v>
       </c>
       <c r="T3" t="n">
-        <v>3471.491502958139</v>
+        <v>1542.908191941377</v>
       </c>
       <c r="U3" t="n">
-        <v>3295.154955958108</v>
+        <v>1366.571644941345</v>
       </c>
       <c r="V3" t="n">
-        <v>3096.037438020107</v>
+        <v>1167.454127003344</v>
       </c>
       <c r="W3" t="n">
-        <v>2910.714683753301</v>
+        <v>982.1313727365382</v>
       </c>
       <c r="X3" t="n">
-        <v>2755.847247992181</v>
+        <v>827.2639369754182</v>
       </c>
       <c r="Y3" t="n">
-        <v>2629.361468771402</v>
+        <v>700.778157754639</v>
       </c>
     </row>
     <row r="4">
@@ -4485,7 +4485,7 @@
         <v>161.9624609089078</v>
       </c>
       <c r="I4" t="n">
-        <v>73.30251168358309</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="J4" t="n">
         <v>159.882196848273</v>
@@ -4515,25 +4515,25 @@
         <v>2668.544300291755</v>
       </c>
       <c r="S4" t="n">
-        <v>2668.544300291755</v>
+        <v>2509.302931589751</v>
       </c>
       <c r="T4" t="n">
-        <v>2654.405629657103</v>
+        <v>2263.423485168206</v>
       </c>
       <c r="U4" t="n">
-        <v>2375.972628910209</v>
+        <v>1984.990484421312</v>
       </c>
       <c r="V4" t="n">
-        <v>2089.017120780639</v>
+        <v>1698.034976291742</v>
       </c>
       <c r="W4" t="n">
-        <v>1816.990716366931</v>
+        <v>1426.008571878034</v>
       </c>
       <c r="X4" t="n">
-        <v>1571.598961700343</v>
+        <v>1180.616817211446</v>
       </c>
       <c r="Y4" t="n">
-        <v>1344.179291014452</v>
+        <v>1180.616817211446</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2210.811564507809</v>
+        <v>1568.675896148531</v>
       </c>
       <c r="C5" t="n">
-        <v>1772.669091691232</v>
+        <v>1130.533423331955</v>
       </c>
       <c r="D5" t="n">
-        <v>1336.759306865676</v>
+        <v>934.9446861160802</v>
       </c>
       <c r="E5" t="n">
-        <v>902.9845620239714</v>
+        <v>501.1699412743753</v>
       </c>
       <c r="F5" t="n">
-        <v>475.1171324331792</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="G5" t="n">
-        <v>73.71930105644307</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="H5" t="n">
-        <v>73.71930105644307</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="I5" t="n">
-        <v>73.30251168358308</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="J5" t="n">
         <v>508.557199136501</v>
       </c>
       <c r="K5" t="n">
-        <v>1214.044276549766</v>
+        <v>1342.907491094679</v>
       </c>
       <c r="L5" t="n">
-        <v>1214.044276549766</v>
+        <v>1342.907491094679</v>
       </c>
       <c r="M5" t="n">
-        <v>1214.044276549766</v>
+        <v>2121.162858634107</v>
       </c>
       <c r="N5" t="n">
-        <v>1214.044276549766</v>
+        <v>2121.162858634107</v>
       </c>
       <c r="O5" t="n">
-        <v>2121.162858634106</v>
+        <v>2121.162858634107</v>
       </c>
       <c r="P5" t="n">
-        <v>2949.472733467503</v>
+        <v>2949.472733467504</v>
       </c>
       <c r="Q5" t="n">
-        <v>3495.971519426097</v>
+        <v>3495.971519426098</v>
       </c>
       <c r="R5" t="n">
-        <v>3665.125584179154</v>
+        <v>3665.125584179155</v>
       </c>
       <c r="S5" t="n">
-        <v>3581.473710362991</v>
+        <v>3665.125584179155</v>
       </c>
       <c r="T5" t="n">
-        <v>3581.473710362991</v>
+        <v>3445.058357052194</v>
       </c>
       <c r="U5" t="n">
-        <v>3581.473710362991</v>
+        <v>3185.836054369211</v>
       </c>
       <c r="V5" t="n">
-        <v>3581.473710362991</v>
+        <v>2823.219104303037</v>
       </c>
       <c r="W5" t="n">
-        <v>3176.618255774024</v>
+        <v>2418.363649714071</v>
       </c>
       <c r="X5" t="n">
-        <v>2757.475792353335</v>
+        <v>2403.261590333786</v>
       </c>
       <c r="Y5" t="n">
-        <v>2637.111134992716</v>
+        <v>1994.975466633439</v>
       </c>
     </row>
     <row r="6">
@@ -4640,31 +4640,31 @@
         <v>115.0381638673706</v>
       </c>
       <c r="H6" t="n">
-        <v>73.30251168358308</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="I6" t="n">
-        <v>73.30251168358308</v>
+        <v>99.3661848440407</v>
       </c>
       <c r="J6" t="n">
-        <v>73.30251168358308</v>
+        <v>423.924509810253</v>
       </c>
       <c r="K6" t="n">
-        <v>73.30251168358308</v>
+        <v>1078.630556435977</v>
       </c>
       <c r="L6" t="n">
-        <v>980.4210937679236</v>
+        <v>1078.630556435977</v>
       </c>
       <c r="M6" t="n">
-        <v>980.4210937679236</v>
+        <v>1078.630556435977</v>
       </c>
       <c r="N6" t="n">
-        <v>980.4210937679236</v>
+        <v>1078.630556435977</v>
       </c>
       <c r="O6" t="n">
-        <v>1619.369495068052</v>
+        <v>1078.630556435977</v>
       </c>
       <c r="P6" t="n">
-        <v>1619.369495068052</v>
+        <v>1078.630556435977</v>
       </c>
       <c r="Q6" t="n">
         <v>1619.369495068052</v>
@@ -4701,7 +4701,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1152.360672295464</v>
+        <v>979.7989607786893</v>
       </c>
       <c r="C7" t="n">
         <v>979.7989607786893</v>
@@ -4722,10 +4722,10 @@
         <v>161.9624609089078</v>
       </c>
       <c r="I7" t="n">
-        <v>73.30251168358308</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="J7" t="n">
-        <v>159.8821968482729</v>
+        <v>159.882196848273</v>
       </c>
       <c r="K7" t="n">
         <v>434.6406514194085</v>
@@ -4758,19 +4758,19 @@
         <v>2263.423485168206</v>
       </c>
       <c r="U7" t="n">
-        <v>2184.154010191221</v>
+        <v>1984.990484421312</v>
       </c>
       <c r="V7" t="n">
-        <v>1897.198502061652</v>
+        <v>1698.034976291742</v>
       </c>
       <c r="W7" t="n">
-        <v>1625.172097647944</v>
+        <v>1426.008571878034</v>
       </c>
       <c r="X7" t="n">
-        <v>1379.780342981356</v>
+        <v>1180.616817211446</v>
       </c>
       <c r="Y7" t="n">
-        <v>1152.360672295464</v>
+        <v>979.7989607786893</v>
       </c>
     </row>
     <row r="8">
@@ -4780,28 +4780,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2210.811564507809</v>
+        <v>2499.941719064592</v>
       </c>
       <c r="C8" t="n">
-        <v>1772.669091691232</v>
+        <v>2061.799246248016</v>
       </c>
       <c r="D8" t="n">
-        <v>1336.759306865676</v>
+        <v>1625.88946142246</v>
       </c>
       <c r="E8" t="n">
-        <v>902.9845620239714</v>
+        <v>1192.114716580755</v>
       </c>
       <c r="F8" t="n">
-        <v>475.1171324331792</v>
+        <v>764.247286989963</v>
       </c>
       <c r="G8" t="n">
-        <v>73.71930105644307</v>
+        <v>362.8494556132268</v>
       </c>
       <c r="H8" t="n">
-        <v>73.71930105644307</v>
+        <v>73.7193010564431</v>
       </c>
       <c r="I8" t="n">
-        <v>73.30251168358308</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="J8" t="n">
         <v>508.557199136501</v>
@@ -4819,7 +4819,7 @@
         <v>1342.907491094679</v>
       </c>
       <c r="O8" t="n">
-        <v>2250.026073179019</v>
+        <v>2250.02607317902</v>
       </c>
       <c r="P8" t="n">
         <v>3078.335948012416</v>
@@ -4828,28 +4828,28 @@
         <v>3624.83473397101</v>
       </c>
       <c r="R8" t="n">
-        <v>3665.125584179154</v>
+        <v>3665.125584179155</v>
       </c>
       <c r="S8" t="n">
-        <v>3665.125584179154</v>
+        <v>3581.473710362992</v>
       </c>
       <c r="T8" t="n">
-        <v>3445.058357052193</v>
+        <v>3581.473710362992</v>
       </c>
       <c r="U8" t="n">
-        <v>3185.83605436921</v>
+        <v>3581.473710362992</v>
       </c>
       <c r="V8" t="n">
-        <v>3185.83605436921</v>
+        <v>3581.473710362992</v>
       </c>
       <c r="W8" t="n">
-        <v>3185.021003820647</v>
+        <v>3580.658659814429</v>
       </c>
       <c r="X8" t="n">
-        <v>3045.397258693063</v>
+        <v>3334.527413249847</v>
       </c>
       <c r="Y8" t="n">
-        <v>2637.111134992716</v>
+        <v>2926.2412895495</v>
       </c>
     </row>
     <row r="9">
@@ -4877,34 +4877,34 @@
         <v>115.0381638673706</v>
       </c>
       <c r="H9" t="n">
-        <v>73.30251168358308</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="I9" t="n">
-        <v>73.30251168358308</v>
+        <v>99.3661848440407</v>
       </c>
       <c r="J9" t="n">
-        <v>73.30251168358308</v>
+        <v>423.924509810253</v>
       </c>
       <c r="K9" t="n">
-        <v>73.30251168358308</v>
+        <v>423.924509810253</v>
       </c>
       <c r="L9" t="n">
-        <v>73.30251168358308</v>
+        <v>423.924509810253</v>
       </c>
       <c r="M9" t="n">
-        <v>829.4236910780512</v>
+        <v>423.924509810253</v>
       </c>
       <c r="N9" t="n">
-        <v>1736.542273162392</v>
+        <v>423.924509810253</v>
       </c>
       <c r="O9" t="n">
-        <v>1736.542273162392</v>
+        <v>423.924509810253</v>
       </c>
       <c r="P9" t="n">
-        <v>1736.542273162392</v>
+        <v>1078.630556435977</v>
       </c>
       <c r="Q9" t="n">
-        <v>1736.542273162392</v>
+        <v>1619.369495068052</v>
       </c>
       <c r="R9" t="n">
         <v>1736.542273162392</v>
@@ -4959,10 +4959,10 @@
         <v>161.9624609089078</v>
       </c>
       <c r="I10" t="n">
-        <v>73.30251168358308</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="J10" t="n">
-        <v>159.8821968482729</v>
+        <v>159.882196848273</v>
       </c>
       <c r="K10" t="n">
         <v>434.6406514194085</v>
@@ -4986,16 +4986,16 @@
         <v>2689.962121586383</v>
       </c>
       <c r="R10" t="n">
-        <v>2668.544300291755</v>
+        <v>2689.962121586383</v>
       </c>
       <c r="S10" t="n">
-        <v>2509.302931589751</v>
+        <v>2689.962121586383</v>
       </c>
       <c r="T10" t="n">
-        <v>2509.302931589751</v>
+        <v>2654.405629657103</v>
       </c>
       <c r="U10" t="n">
-        <v>2230.869930842856</v>
+        <v>2375.972628910209</v>
       </c>
       <c r="V10" t="n">
         <v>2089.017120780639</v>
@@ -5017,28 +5017,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2499.524929691732</v>
+        <v>2098.127098314996</v>
       </c>
       <c r="C11" t="n">
-        <v>2061.382456875156</v>
+        <v>1659.98462549842</v>
       </c>
       <c r="D11" t="n">
-        <v>1625.4726720496</v>
+        <v>1224.074840672864</v>
       </c>
       <c r="E11" t="n">
-        <v>1191.697927207895</v>
+        <v>790.3000958311591</v>
       </c>
       <c r="F11" t="n">
-        <v>763.830497617103</v>
+        <v>362.4326662403669</v>
       </c>
       <c r="G11" t="n">
-        <v>362.4326662403668</v>
+        <v>362.4326662403669</v>
       </c>
       <c r="H11" t="n">
-        <v>73.30251168358308</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="I11" t="n">
-        <v>73.30251168358308</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="J11" t="n">
         <v>508.557199136501</v>
@@ -5047,46 +5047,46 @@
         <v>1342.907491094679</v>
       </c>
       <c r="L11" t="n">
-        <v>1342.907491094679</v>
+        <v>1383.198341302823</v>
       </c>
       <c r="M11" t="n">
-        <v>1342.907491094679</v>
+        <v>1383.198341302823</v>
       </c>
       <c r="N11" t="n">
-        <v>1342.907491094679</v>
+        <v>1383.198341302823</v>
       </c>
       <c r="O11" t="n">
-        <v>2250.026073179019</v>
+        <v>2290.316923387164</v>
       </c>
       <c r="P11" t="n">
-        <v>3078.335948012416</v>
+        <v>3118.62679822056</v>
       </c>
       <c r="Q11" t="n">
-        <v>3624.83473397101</v>
+        <v>3665.125584179155</v>
       </c>
       <c r="R11" t="n">
-        <v>3665.125584179154</v>
+        <v>3665.125584179155</v>
       </c>
       <c r="S11" t="n">
-        <v>3665.125584179154</v>
+        <v>3665.125584179155</v>
       </c>
       <c r="T11" t="n">
-        <v>3665.125584179154</v>
+        <v>3665.125584179155</v>
       </c>
       <c r="U11" t="n">
-        <v>3665.125584179154</v>
+        <v>3665.125584179155</v>
       </c>
       <c r="V11" t="n">
-        <v>3302.50863411298</v>
+        <v>3351.85525592094</v>
       </c>
       <c r="W11" t="n">
-        <v>2897.653179524013</v>
+        <v>3351.85525592094</v>
       </c>
       <c r="X11" t="n">
-        <v>2897.653179524013</v>
+        <v>2932.712792500251</v>
       </c>
       <c r="Y11" t="n">
-        <v>2897.653179524013</v>
+        <v>2524.426668799904</v>
       </c>
     </row>
     <row r="12">
@@ -5114,28 +5114,28 @@
         <v>115.0381638673706</v>
       </c>
       <c r="H12" t="n">
-        <v>73.30251168358308</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="I12" t="n">
-        <v>99.36618484404067</v>
+        <v>99.3661848440407</v>
       </c>
       <c r="J12" t="n">
         <v>423.924509810253</v>
       </c>
       <c r="K12" t="n">
-        <v>1078.630556435977</v>
+        <v>423.924509810253</v>
       </c>
       <c r="L12" t="n">
-        <v>1078.630556435977</v>
+        <v>423.924509810253</v>
       </c>
       <c r="M12" t="n">
-        <v>1078.630556435977</v>
+        <v>423.924509810253</v>
       </c>
       <c r="N12" t="n">
-        <v>1078.630556435977</v>
+        <v>423.924509810253</v>
       </c>
       <c r="O12" t="n">
-        <v>1078.630556435977</v>
+        <v>423.924509810253</v>
       </c>
       <c r="P12" t="n">
         <v>1078.630556435977</v>
@@ -5175,31 +5175,31 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1063.70072307014</v>
+        <v>923.7985487605143</v>
       </c>
       <c r="C13" t="n">
-        <v>891.1390115533646</v>
+        <v>751.2368372437393</v>
       </c>
       <c r="D13" t="n">
-        <v>725.2610187548873</v>
+        <v>585.358844445262</v>
       </c>
       <c r="E13" t="n">
-        <v>555.5030150056247</v>
+        <v>415.6008406959992</v>
       </c>
       <c r="F13" t="n">
-        <v>378.7959609673809</v>
+        <v>238.8937866577554</v>
       </c>
       <c r="G13" t="n">
-        <v>213.2046859932086</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="H13" t="n">
-        <v>73.30251168358308</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="I13" t="n">
-        <v>73.30251168358308</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="J13" t="n">
-        <v>159.8821968482729</v>
+        <v>159.882196848273</v>
       </c>
       <c r="K13" t="n">
         <v>434.6406514194085</v>
@@ -5226,25 +5226,25 @@
         <v>2689.962121586383</v>
       </c>
       <c r="S13" t="n">
-        <v>2689.962121586383</v>
+        <v>2671.722952543698</v>
       </c>
       <c r="T13" t="n">
-        <v>2565.745680431779</v>
+        <v>2425.843506122153</v>
       </c>
       <c r="U13" t="n">
-        <v>2287.312679684884</v>
+        <v>2147.410505375259</v>
       </c>
       <c r="V13" t="n">
-        <v>2000.357171555315</v>
+        <v>1860.454997245689</v>
       </c>
       <c r="W13" t="n">
-        <v>1728.330767141606</v>
+        <v>1588.428592831981</v>
       </c>
       <c r="X13" t="n">
-        <v>1482.939012475019</v>
+        <v>1343.036838165393</v>
       </c>
       <c r="Y13" t="n">
-        <v>1255.519341789127</v>
+        <v>1115.617167479501</v>
       </c>
     </row>
     <row r="14">
@@ -5254,28 +5254,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1808.996943758212</v>
+        <v>2489.367055823669</v>
       </c>
       <c r="C14" t="n">
-        <v>1370.854470941636</v>
+        <v>2051.224583007092</v>
       </c>
       <c r="D14" t="n">
-        <v>934.9446861160802</v>
+        <v>1625.4726720496</v>
       </c>
       <c r="E14" t="n">
-        <v>501.1699412743753</v>
+        <v>1191.697927207895</v>
       </c>
       <c r="F14" t="n">
-        <v>73.30251168358308</v>
+        <v>763.830497617103</v>
       </c>
       <c r="G14" t="n">
-        <v>73.30251168358308</v>
+        <v>362.4326662403669</v>
       </c>
       <c r="H14" t="n">
-        <v>73.30251168358308</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="I14" t="n">
-        <v>73.30251168358308</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="J14" t="n">
         <v>508.557199136501</v>
@@ -5284,46 +5284,46 @@
         <v>1342.907491094679</v>
       </c>
       <c r="L14" t="n">
-        <v>1342.907491094679</v>
+        <v>1383.198341302823</v>
       </c>
       <c r="M14" t="n">
-        <v>1342.907491094679</v>
+        <v>1383.198341302823</v>
       </c>
       <c r="N14" t="n">
-        <v>1342.907491094679</v>
+        <v>1383.198341302823</v>
       </c>
       <c r="O14" t="n">
-        <v>2250.026073179019</v>
+        <v>2290.316923387164</v>
       </c>
       <c r="P14" t="n">
-        <v>3078.335948012416</v>
+        <v>3118.62679822056</v>
       </c>
       <c r="Q14" t="n">
-        <v>3624.83473397101</v>
+        <v>3665.125584179155</v>
       </c>
       <c r="R14" t="n">
-        <v>3665.125584179154</v>
+        <v>3665.125584179155</v>
       </c>
       <c r="S14" t="n">
-        <v>3665.125584179154</v>
+        <v>3665.125584179155</v>
       </c>
       <c r="T14" t="n">
-        <v>3665.125584179154</v>
+        <v>3665.125584179155</v>
       </c>
       <c r="U14" t="n">
-        <v>3665.125584179154</v>
+        <v>3665.125584179155</v>
       </c>
       <c r="V14" t="n">
-        <v>3467.580555953123</v>
+        <v>3302.508634112982</v>
       </c>
       <c r="W14" t="n">
-        <v>3062.725101364156</v>
+        <v>2897.653179524015</v>
       </c>
       <c r="X14" t="n">
-        <v>2643.582637943467</v>
+        <v>2897.653179524015</v>
       </c>
       <c r="Y14" t="n">
-        <v>2235.29651424312</v>
+        <v>2489.367055823669</v>
       </c>
     </row>
     <row r="15">
@@ -5351,10 +5351,10 @@
         <v>115.0381638673706</v>
       </c>
       <c r="H15" t="n">
-        <v>73.30251168358308</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="I15" t="n">
-        <v>99.36618484404067</v>
+        <v>99.3661848440407</v>
       </c>
       <c r="J15" t="n">
         <v>423.924509810253</v>
@@ -5412,31 +5412,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>782.7963491011951</v>
+        <v>923.7985487605143</v>
       </c>
       <c r="C16" t="n">
-        <v>610.2346375844201</v>
+        <v>751.2368372437393</v>
       </c>
       <c r="D16" t="n">
-        <v>444.3566447859428</v>
+        <v>585.358844445262</v>
       </c>
       <c r="E16" t="n">
-        <v>274.59864103668</v>
+        <v>415.6008406959992</v>
       </c>
       <c r="F16" t="n">
-        <v>97.89158699843622</v>
+        <v>238.8937866577554</v>
       </c>
       <c r="G16" t="n">
-        <v>73.30251168358308</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="H16" t="n">
-        <v>73.30251168358308</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="I16" t="n">
-        <v>73.30251168358308</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="J16" t="n">
-        <v>159.8821968482729</v>
+        <v>159.882196848273</v>
       </c>
       <c r="K16" t="n">
         <v>434.6406514194085</v>
@@ -5463,25 +5463,25 @@
         <v>2689.962121586383</v>
       </c>
       <c r="S16" t="n">
-        <v>2530.720752884379</v>
+        <v>2671.722952543698</v>
       </c>
       <c r="T16" t="n">
-        <v>2284.841306462834</v>
+        <v>2425.843506122153</v>
       </c>
       <c r="U16" t="n">
-        <v>2006.40830571594</v>
+        <v>2147.410505375259</v>
       </c>
       <c r="V16" t="n">
-        <v>1719.45279758637</v>
+        <v>1860.454997245689</v>
       </c>
       <c r="W16" t="n">
-        <v>1447.426393172662</v>
+        <v>1588.428592831981</v>
       </c>
       <c r="X16" t="n">
-        <v>1202.034638506074</v>
+        <v>1343.036838165393</v>
       </c>
       <c r="Y16" t="n">
-        <v>974.6149678201823</v>
+        <v>1115.617167479501</v>
       </c>
     </row>
     <row r="17">
@@ -5524,7 +5524,7 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M17" t="n">
-        <v>2588.899621423628</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N17" t="n">
         <v>2588.899621423628</v>
@@ -5542,10 +5542,10 @@
         <v>5113.042013538981</v>
       </c>
       <c r="S17" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T17" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U17" t="n">
         <v>4550.100609912873</v>
@@ -5649,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>790.3368563937634</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C19" t="n">
-        <v>750.3393363912985</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D19" t="n">
-        <v>584.4613435928212</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E19" t="n">
-        <v>584.4613435928212</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F19" t="n">
-        <v>407.7542895545774</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G19" t="n">
-        <v>242.1630145804051</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H19" t="n">
         <v>102.2608402707796</v>
@@ -5697,28 +5697,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R19" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S19" t="n">
-        <v>2538.261260176947</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T19" t="n">
-        <v>2292.381813755403</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U19" t="n">
-        <v>2013.948813008508</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V19" t="n">
-        <v>1726.993304878938</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W19" t="n">
-        <v>1454.96690046523</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X19" t="n">
-        <v>1209.575145798642</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y19" t="n">
-        <v>982.1554751127505</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="20">
@@ -5740,13 +5740,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F20" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G20" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H20" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I20" t="n">
         <v>102.2608402707796</v>
@@ -5761,43 +5761,43 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M20" t="n">
-        <v>2588.899621423628</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N20" t="n">
-        <v>2588.899621423628</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O20" t="n">
-        <v>3569.079287993934</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P20" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q20" t="n">
-        <v>4943.887948785925</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R20" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S20" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T20" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U20" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V20" t="n">
         <v>4187.483659846699</v>
       </c>
       <c r="W20" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X20" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y20" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="21">
@@ -5828,25 +5828,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I21" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J21" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K21" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L21" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M21" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N21" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O21" t="n">
-        <v>287.8657185439749</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P21" t="n">
         <v>1107.588885023173</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3575.440564248063</v>
+        <v>811.7546776883914</v>
       </c>
       <c r="C22" t="n">
-        <v>3402.878852731288</v>
+        <v>639.1929661716164</v>
       </c>
       <c r="D22" t="n">
-        <v>3237.000859932811</v>
+        <v>473.3149733731391</v>
       </c>
       <c r="E22" t="n">
-        <v>3067.242856183548</v>
+        <v>303.5569696238763</v>
       </c>
       <c r="F22" t="n">
-        <v>2890.535802145304</v>
+        <v>126.8499155856325</v>
       </c>
       <c r="G22" t="n">
-        <v>2724.944527171132</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H22" t="n">
-        <v>2585.042352861507</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I22" t="n">
-        <v>2496.382403636182</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J22" t="n">
-        <v>2582.962088800872</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K22" t="n">
-        <v>2857.720543372007</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L22" t="n">
-        <v>3275.930425139968</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M22" t="n">
-        <v>3735.414292320881</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N22" t="n">
-        <v>4177.673095478525</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O22" t="n">
-        <v>4597.342344704308</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P22" t="n">
-        <v>4944.849238674649</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q22" t="n">
-        <v>5113.042013538981</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R22" t="n">
-        <v>5091.624192244353</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S22" t="n">
-        <v>4932.38282354235</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T22" t="n">
-        <v>4686.503377120805</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U22" t="n">
-        <v>4686.503377120805</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V22" t="n">
-        <v>4512.097012733238</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W22" t="n">
-        <v>4240.070608319529</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X22" t="n">
-        <v>3994.678853652942</v>
+        <v>1230.99296709327</v>
       </c>
       <c r="Y22" t="n">
-        <v>3767.25918296705</v>
+        <v>1003.573296407379</v>
       </c>
     </row>
     <row r="23">
@@ -5977,13 +5977,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F23" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G23" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H23" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I23" t="n">
         <v>102.2608402707796</v>
@@ -5998,7 +5998,7 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M23" t="n">
-        <v>2446.925785934734</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N23" t="n">
         <v>2588.899621423627</v>
@@ -6028,13 +6028,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W23" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X23" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y23" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="24">
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3346.878440713113</v>
+        <v>970.9960463903949</v>
       </c>
       <c r="C25" t="n">
-        <v>3174.316729196338</v>
+        <v>798.4343348736198</v>
       </c>
       <c r="D25" t="n">
-        <v>3008.438736397861</v>
+        <v>632.5563420751425</v>
       </c>
       <c r="E25" t="n">
-        <v>2838.680732648598</v>
+        <v>462.7983383258798</v>
       </c>
       <c r="F25" t="n">
-        <v>2661.973678610354</v>
+        <v>286.091284287636</v>
       </c>
       <c r="G25" t="n">
-        <v>2496.382403636182</v>
+        <v>120.5000093134636</v>
       </c>
       <c r="H25" t="n">
-        <v>2496.382403636182</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I25" t="n">
-        <v>2496.382403636182</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J25" t="n">
-        <v>2582.962088800872</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K25" t="n">
-        <v>2857.720543372007</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L25" t="n">
-        <v>3275.930425139968</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M25" t="n">
-        <v>3735.414292320881</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N25" t="n">
-        <v>4177.673095478525</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O25" t="n">
-        <v>4597.342344704308</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P25" t="n">
-        <v>4944.849238674649</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q25" t="n">
-        <v>5113.042013538981</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R25" t="n">
-        <v>5113.042013538981</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S25" t="n">
-        <v>5094.802844496297</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T25" t="n">
-        <v>4848.923398074752</v>
+        <v>2473.041003752034</v>
       </c>
       <c r="U25" t="n">
-        <v>4570.490397327858</v>
+        <v>2194.608003005139</v>
       </c>
       <c r="V25" t="n">
-        <v>4283.534889198289</v>
+        <v>1907.65249487557</v>
       </c>
       <c r="W25" t="n">
-        <v>4011.50848478458</v>
+        <v>1635.626090461861</v>
       </c>
       <c r="X25" t="n">
-        <v>3766.116730117992</v>
+        <v>1390.234335795274</v>
       </c>
       <c r="Y25" t="n">
-        <v>3538.697059432101</v>
+        <v>1162.814665109382</v>
       </c>
     </row>
     <row r="26">
@@ -6214,13 +6214,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F26" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G26" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H26" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I26" t="n">
         <v>102.2608402707796</v>
@@ -6232,22 +6232,22 @@
         <v>936.6111322289576</v>
       </c>
       <c r="L26" t="n">
-        <v>1632.322702740237</v>
+        <v>1632.322702740236</v>
       </c>
       <c r="M26" t="n">
-        <v>1632.322702740237</v>
+        <v>1632.322702740236</v>
       </c>
       <c r="N26" t="n">
-        <v>2758.053686176684</v>
+        <v>2758.053686176683</v>
       </c>
       <c r="O26" t="n">
         <v>3738.23335274699</v>
       </c>
       <c r="P26" t="n">
-        <v>4566.543227580387</v>
+        <v>4566.543227580386</v>
       </c>
       <c r="Q26" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R26" t="n">
         <v>5113.04201353898</v>
@@ -6308,19 +6308,19 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K27" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L27" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M27" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N27" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O27" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="P27" t="n">
         <v>1107.588885023173</v>
@@ -6360,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>790.3368563937634</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C28" t="n">
-        <v>617.7751448769883</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D28" t="n">
-        <v>451.897152078511</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E28" t="n">
-        <v>282.1391483292483</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F28" t="n">
-        <v>242.1630145804051</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G28" t="n">
-        <v>242.1630145804051</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H28" t="n">
         <v>102.2608402707796</v>
@@ -6408,28 +6408,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R28" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S28" t="n">
-        <v>2538.261260176947</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T28" t="n">
-        <v>2292.381813755403</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U28" t="n">
-        <v>2013.948813008508</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V28" t="n">
-        <v>1726.993304878938</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W28" t="n">
-        <v>1454.96690046523</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X28" t="n">
-        <v>1209.575145798642</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y28" t="n">
-        <v>982.1554751127505</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="29">
@@ -6451,13 +6451,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F29" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G29" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H29" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I29" t="n">
         <v>102.2608402707796</v>
@@ -6502,13 +6502,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W29" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X29" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y29" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="30">
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1181.319000882661</v>
+        <v>811.7546776883914</v>
       </c>
       <c r="C31" t="n">
-        <v>1008.757289365886</v>
+        <v>639.1929661716164</v>
       </c>
       <c r="D31" t="n">
-        <v>842.8792965674086</v>
+        <v>473.3149733731391</v>
       </c>
       <c r="E31" t="n">
-        <v>673.1212928181459</v>
+        <v>303.5569696238763</v>
       </c>
       <c r="F31" t="n">
-        <v>496.4142387799021</v>
+        <v>126.8499155856325</v>
       </c>
       <c r="G31" t="n">
-        <v>330.8229638057298</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H31" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I31" t="n">
         <v>102.2608402707796</v>
@@ -6654,19 +6654,19 @@
         <v>2313.799635050031</v>
       </c>
       <c r="U31" t="n">
-        <v>2313.799635050031</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V31" t="n">
-        <v>2117.975449367836</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W31" t="n">
-        <v>1845.949044954127</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X31" t="n">
-        <v>1600.55729028754</v>
+        <v>1230.99296709327</v>
       </c>
       <c r="Y31" t="n">
-        <v>1373.137619601648</v>
+        <v>1003.573296407379</v>
       </c>
     </row>
     <row r="32">
@@ -6688,13 +6688,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F32" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G32" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H32" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I32" t="n">
         <v>102.2608402707796</v>
@@ -6709,7 +6709,7 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M32" t="n">
-        <v>2446.925785934734</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N32" t="n">
         <v>2588.899621423627</v>
@@ -6739,13 +6739,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W32" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X32" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y32" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="33">
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1181.319000882661</v>
+        <v>949.5782250957668</v>
       </c>
       <c r="C34" t="n">
-        <v>1008.757289365886</v>
+        <v>777.0165135789917</v>
       </c>
       <c r="D34" t="n">
-        <v>842.8792965674086</v>
+        <v>611.1385207805145</v>
       </c>
       <c r="E34" t="n">
-        <v>673.1212928181459</v>
+        <v>441.3805170312517</v>
       </c>
       <c r="F34" t="n">
-        <v>496.4142387799021</v>
+        <v>264.6734629930079</v>
       </c>
       <c r="G34" t="n">
-        <v>330.8229638057298</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H34" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I34" t="n">
         <v>102.2608402707796</v>
@@ -6885,25 +6885,25 @@
         <v>2697.502628878951</v>
       </c>
       <c r="S34" t="n">
-        <v>2538.261260176947</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="T34" t="n">
-        <v>2538.261260176947</v>
+        <v>2451.623182457406</v>
       </c>
       <c r="U34" t="n">
-        <v>2404.930957497405</v>
+        <v>2173.190181710511</v>
       </c>
       <c r="V34" t="n">
-        <v>2117.975449367836</v>
+        <v>1886.234673580942</v>
       </c>
       <c r="W34" t="n">
-        <v>1845.949044954127</v>
+        <v>1614.208269167233</v>
       </c>
       <c r="X34" t="n">
-        <v>1600.55729028754</v>
+        <v>1368.816514500646</v>
       </c>
       <c r="Y34" t="n">
-        <v>1373.137619601648</v>
+        <v>1141.396843814754</v>
       </c>
     </row>
     <row r="35">
@@ -6925,13 +6925,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F35" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G35" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H35" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I35" t="n">
         <v>102.2608402707796</v>
@@ -6949,16 +6949,16 @@
         <v>2446.925785934734</v>
       </c>
       <c r="N35" t="n">
-        <v>2758.053686176683</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O35" t="n">
-        <v>3738.23335274699</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P35" t="n">
-        <v>4566.543227580386</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q35" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R35" t="n">
         <v>5113.04201353898</v>
@@ -6976,13 +6976,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W35" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X35" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y35" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="36">
@@ -7150,13 +7150,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2528.900047651789</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C38" t="n">
-        <v>2090.757574835212</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D38" t="n">
-        <v>1654.847790009657</v>
+        <v>1654.847790009658</v>
       </c>
       <c r="E38" t="n">
         <v>1221.073045167952</v>
@@ -7174,28 +7174,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J38" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K38" t="n">
-        <v>936.6111322289576</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L38" t="n">
-        <v>2011.671098481817</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M38" t="n">
-        <v>3168.718933692368</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="N38" t="n">
-        <v>4294.449917128814</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O38" t="n">
-        <v>5113.042013538981</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P38" t="n">
-        <v>5113.042013538981</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q38" t="n">
-        <v>5113.042013538981</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R38" t="n">
         <v>5113.042013538981</v>
@@ -7204,22 +7204,22 @@
         <v>5029.390139722818</v>
       </c>
       <c r="T38" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U38" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V38" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W38" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X38" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y38" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="39">
@@ -7229,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>3955.973997051466</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C39" t="n">
-        <v>3849.517535888108</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D39" t="n">
-        <v>3754.427247034661</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E39" t="n">
-        <v>3660.306832361615</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F39" t="n">
-        <v>3576.922993977777</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G39" t="n">
-        <v>3491.53790424396</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H39" t="n">
-        <v>3449.802252060173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I39" t="n">
-        <v>3475.865925220631</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J39" t="n">
-        <v>3800.424250186843</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K39" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L39" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M39" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N39" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O39" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P39" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q39" t="n">
-        <v>4995.869235444641</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R39" t="n">
-        <v>5113.042013538981</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S39" t="n">
-        <v>5049.586575987364</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T39" t="n">
-        <v>4919.407932317966</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U39" t="n">
-        <v>4743.071385317934</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V39" t="n">
-        <v>4543.953867379933</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W39" t="n">
-        <v>4358.631113113128</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X39" t="n">
-        <v>4203.763677352008</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y39" t="n">
-        <v>4077.277898131229</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="40">
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>3575.440564248063</v>
+        <v>970.9960463903949</v>
       </c>
       <c r="C40" t="n">
-        <v>3402.878852731288</v>
+        <v>798.4343348736198</v>
       </c>
       <c r="D40" t="n">
-        <v>3237.000859932811</v>
+        <v>632.5563420751425</v>
       </c>
       <c r="E40" t="n">
-        <v>3067.242856183548</v>
+        <v>462.7983383258798</v>
       </c>
       <c r="F40" t="n">
-        <v>2890.535802145304</v>
+        <v>286.091284287636</v>
       </c>
       <c r="G40" t="n">
-        <v>2724.944527171132</v>
+        <v>120.5000093134636</v>
       </c>
       <c r="H40" t="n">
-        <v>2585.042352861507</v>
+        <v>120.5000093134636</v>
       </c>
       <c r="I40" t="n">
-        <v>2496.382403636182</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J40" t="n">
-        <v>2582.962088800872</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K40" t="n">
-        <v>2857.720543372007</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L40" t="n">
-        <v>3275.930425139968</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M40" t="n">
-        <v>3735.414292320881</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N40" t="n">
-        <v>4177.673095478525</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O40" t="n">
-        <v>4597.342344704308</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P40" t="n">
-        <v>4944.849238674649</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q40" t="n">
-        <v>5113.042013538981</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R40" t="n">
-        <v>5113.042013538981</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S40" t="n">
-        <v>5113.042013538981</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T40" t="n">
-        <v>4867.162567117437</v>
+        <v>2473.041003752034</v>
       </c>
       <c r="U40" t="n">
-        <v>4588.729566370543</v>
+        <v>2194.608003005139</v>
       </c>
       <c r="V40" t="n">
-        <v>4301.774058240973</v>
+        <v>1907.65249487557</v>
       </c>
       <c r="W40" t="n">
-        <v>4240.070608319529</v>
+        <v>1635.626090461861</v>
       </c>
       <c r="X40" t="n">
-        <v>3994.678853652942</v>
+        <v>1390.234335795274</v>
       </c>
       <c r="Y40" t="n">
-        <v>3767.25918296705</v>
+        <v>1162.814665109382</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1572.921615808473</v>
+        <v>2499.941719064592</v>
       </c>
       <c r="C41" t="n">
-        <v>1572.921615808473</v>
+        <v>2061.799246248016</v>
       </c>
       <c r="D41" t="n">
-        <v>1572.921615808473</v>
+        <v>1625.88946142246</v>
       </c>
       <c r="E41" t="n">
-        <v>1139.146870966768</v>
+        <v>1192.114716580755</v>
       </c>
       <c r="F41" t="n">
-        <v>763.830497617103</v>
+        <v>764.247286989963</v>
       </c>
       <c r="G41" t="n">
-        <v>362.4326662403668</v>
+        <v>362.8494556132268</v>
       </c>
       <c r="H41" t="n">
-        <v>73.30251168358308</v>
+        <v>73.7193010564431</v>
       </c>
       <c r="I41" t="n">
-        <v>73.30251168358308</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="J41" t="n">
-        <v>73.30251168358308</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="K41" t="n">
         <v>907.652803641761</v>
       </c>
       <c r="L41" t="n">
-        <v>1383.198341302822</v>
+        <v>1214.044276549766</v>
       </c>
       <c r="M41" t="n">
-        <v>1383.198341302822</v>
+        <v>1214.044276549766</v>
       </c>
       <c r="N41" t="n">
-        <v>1383.198341302822</v>
+        <v>1214.044276549766</v>
       </c>
       <c r="O41" t="n">
-        <v>2290.316923387163</v>
+        <v>2121.162858634107</v>
       </c>
       <c r="P41" t="n">
-        <v>3118.62679822056</v>
+        <v>2949.472733467504</v>
       </c>
       <c r="Q41" t="n">
-        <v>3665.125584179154</v>
+        <v>3495.971519426098</v>
       </c>
       <c r="R41" t="n">
-        <v>3665.125584179154</v>
+        <v>3665.125584179155</v>
       </c>
       <c r="S41" t="n">
-        <v>3665.125584179154</v>
+        <v>3665.125584179155</v>
       </c>
       <c r="T41" t="n">
-        <v>3445.058357052193</v>
+        <v>3445.058357052194</v>
       </c>
       <c r="U41" t="n">
-        <v>3185.83605436921</v>
+        <v>3445.058357052194</v>
       </c>
       <c r="V41" t="n">
-        <v>2823.219104303036</v>
+        <v>3327.370306185628</v>
       </c>
       <c r="W41" t="n">
-        <v>2418.36364971407</v>
+        <v>3327.370306185628</v>
       </c>
       <c r="X41" t="n">
-        <v>1999.22118629338</v>
+        <v>2908.227842764939</v>
       </c>
       <c r="Y41" t="n">
-        <v>1999.22118629338</v>
+        <v>2499.941719064592</v>
       </c>
     </row>
     <row r="42">
@@ -7484,10 +7484,10 @@
         <v>115.0381638673706</v>
       </c>
       <c r="H42" t="n">
-        <v>73.30251168358308</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="I42" t="n">
-        <v>99.36618484404067</v>
+        <v>99.3661848440407</v>
       </c>
       <c r="J42" t="n">
         <v>423.924509810253</v>
@@ -7563,13 +7563,13 @@
         <v>91.54168072626732</v>
       </c>
       <c r="H43" t="n">
-        <v>73.30251168358308</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="I43" t="n">
-        <v>73.30251168358308</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="J43" t="n">
-        <v>159.8821968482729</v>
+        <v>159.882196848273</v>
       </c>
       <c r="K43" t="n">
         <v>434.6406514194085</v>
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2052.211145618417</v>
+        <v>2499.941719064592</v>
       </c>
       <c r="C44" t="n">
-        <v>2052.211145618417</v>
+        <v>2061.799246248016</v>
       </c>
       <c r="D44" t="n">
-        <v>1616.301360792861</v>
+        <v>1625.88946142246</v>
       </c>
       <c r="E44" t="n">
-        <v>1191.697927207895</v>
+        <v>1192.114716580755</v>
       </c>
       <c r="F44" t="n">
-        <v>763.830497617103</v>
+        <v>764.247286989963</v>
       </c>
       <c r="G44" t="n">
-        <v>362.4326662403668</v>
+        <v>362.8494556132268</v>
       </c>
       <c r="H44" t="n">
-        <v>73.30251168358308</v>
+        <v>73.7193010564431</v>
       </c>
       <c r="I44" t="n">
-        <v>73.30251168358308</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="J44" t="n">
         <v>508.557199136501</v>
       </c>
       <c r="K44" t="n">
-        <v>1214.044276549766</v>
+        <v>1342.907491094679</v>
       </c>
       <c r="L44" t="n">
-        <v>2121.162858634106</v>
+        <v>1383.198341302823</v>
       </c>
       <c r="M44" t="n">
-        <v>2121.162858634106</v>
+        <v>1383.198341302823</v>
       </c>
       <c r="N44" t="n">
-        <v>2121.162858634106</v>
+        <v>1383.198341302823</v>
       </c>
       <c r="O44" t="n">
-        <v>2121.162858634106</v>
+        <v>2290.316923387164</v>
       </c>
       <c r="P44" t="n">
-        <v>2949.472733467503</v>
+        <v>3118.62679822056</v>
       </c>
       <c r="Q44" t="n">
-        <v>3495.971519426097</v>
+        <v>3665.125584179155</v>
       </c>
       <c r="R44" t="n">
-        <v>3665.125584179154</v>
+        <v>3665.125584179155</v>
       </c>
       <c r="S44" t="n">
-        <v>3665.125584179154</v>
+        <v>3665.125584179155</v>
       </c>
       <c r="T44" t="n">
-        <v>3665.125584179154</v>
+        <v>3665.125584179155</v>
       </c>
       <c r="U44" t="n">
-        <v>3665.125584179154</v>
+        <v>3405.903281496172</v>
       </c>
       <c r="V44" t="n">
-        <v>3302.50863411298</v>
+        <v>3405.903281496172</v>
       </c>
       <c r="W44" t="n">
-        <v>2897.653179524013</v>
+        <v>3327.370306185628</v>
       </c>
       <c r="X44" t="n">
-        <v>2478.510716103324</v>
+        <v>2908.227842764939</v>
       </c>
       <c r="Y44" t="n">
-        <v>2478.510716103324</v>
+        <v>2499.941719064592</v>
       </c>
     </row>
     <row r="45">
@@ -7721,10 +7721,10 @@
         <v>115.0381638673706</v>
       </c>
       <c r="H45" t="n">
-        <v>73.30251168358308</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="I45" t="n">
-        <v>99.36618484404067</v>
+        <v>99.3661848440407</v>
       </c>
       <c r="J45" t="n">
         <v>423.924509810253</v>
@@ -7782,31 +7782,31 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1152.360672295464</v>
+        <v>942.0377178031986</v>
       </c>
       <c r="C46" t="n">
-        <v>979.7989607786893</v>
+        <v>769.4760062864235</v>
       </c>
       <c r="D46" t="n">
-        <v>813.920967980212</v>
+        <v>603.5980134879462</v>
       </c>
       <c r="E46" t="n">
-        <v>644.1629642309493</v>
+        <v>433.8400097386835</v>
       </c>
       <c r="F46" t="n">
-        <v>467.4559101927056</v>
+        <v>257.1329557004397</v>
       </c>
       <c r="G46" t="n">
-        <v>301.8646352185332</v>
+        <v>161.9624609089078</v>
       </c>
       <c r="H46" t="n">
         <v>161.9624609089078</v>
       </c>
       <c r="I46" t="n">
-        <v>73.30251168358308</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="J46" t="n">
-        <v>159.8821968482729</v>
+        <v>159.882196848273</v>
       </c>
       <c r="K46" t="n">
         <v>434.6406514194085</v>
@@ -7830,28 +7830,28 @@
         <v>2689.962121586383</v>
       </c>
       <c r="R46" t="n">
-        <v>2668.544300291755</v>
+        <v>2689.962121586383</v>
       </c>
       <c r="S46" t="n">
-        <v>2509.302931589751</v>
+        <v>2689.962121586383</v>
       </c>
       <c r="T46" t="n">
-        <v>2263.423485168206</v>
+        <v>2444.082675164838</v>
       </c>
       <c r="U46" t="n">
-        <v>2263.423485168206</v>
+        <v>2165.649674417943</v>
       </c>
       <c r="V46" t="n">
-        <v>2089.017120780639</v>
+        <v>1878.694166288373</v>
       </c>
       <c r="W46" t="n">
-        <v>1816.990716366931</v>
+        <v>1606.667761874665</v>
       </c>
       <c r="X46" t="n">
-        <v>1571.598961700343</v>
+        <v>1361.276007208078</v>
       </c>
       <c r="Y46" t="n">
-        <v>1344.179291014452</v>
+        <v>1133.856336522186</v>
       </c>
     </row>
   </sheetData>
@@ -7990,16 +7990,16 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>786.1165328681086</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>916.2813960447888</v>
       </c>
       <c r="P2" t="n">
         <v>836.6766412458549</v>
       </c>
       <c r="Q2" t="n">
-        <v>552.0189757157522</v>
+        <v>421.8541125390734</v>
       </c>
       <c r="R2" t="n">
         <v>170.8626916697543</v>
@@ -8054,13 +8054,13 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J3" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>687.6096162327044</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8075,7 +8075,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0.03656536949847577</v>
+        <v>661.3192390158823</v>
       </c>
       <c r="Q3" t="n">
         <v>546.2009481132077</v>
@@ -8218,19 +8218,19 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>712.6132095083485</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>786.1165328681095</v>
       </c>
       <c r="N5" t="n">
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>916.2813960447884</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
         <v>836.6766412458549</v>
@@ -8291,16 +8291,16 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>661.3192390158823</v>
       </c>
       <c r="L6" t="n">
-        <v>916.2813960447885</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8309,13 +8309,13 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>645.4024255556853</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -8467,7 +8467,7 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>916.2813960447884</v>
+        <v>916.2813960447888</v>
       </c>
       <c r="P8" t="n">
         <v>836.6766412458549</v>
@@ -8476,7 +8476,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R8" t="n">
-        <v>40.69782849307421</v>
+        <v>40.69782849307558</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8528,10 +8528,10 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -8540,22 +8540,22 @@
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>763.7587670651194</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>916.2813960447885</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>661.3192390158823</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8695,7 +8695,7 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>40.69782849307467</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
@@ -8704,7 +8704,7 @@
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>916.2813960447884</v>
+        <v>916.2813960447888</v>
       </c>
       <c r="P11" t="n">
         <v>836.6766412458549</v>
@@ -8713,7 +8713,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R11" t="n">
-        <v>40.69782849307421</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8771,7 +8771,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -8786,7 +8786,7 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>661.3192390158823</v>
       </c>
       <c r="Q12" t="n">
         <v>546.2009481132077</v>
@@ -8932,7 +8932,7 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>40.69782849307467</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
@@ -8941,7 +8941,7 @@
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>916.2813960447884</v>
+        <v>916.2813960447888</v>
       </c>
       <c r="P14" t="n">
         <v>836.6766412458549</v>
@@ -8950,7 +8950,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R14" t="n">
-        <v>40.69782849307421</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9008,7 +9008,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>661.3192390158824</v>
+        <v>661.3192390158823</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9172,10 +9172,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
         <v>143.4079146352456</v>
-      </c>
-      <c r="N17" t="n">
-        <v>0</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831379</v>
@@ -9409,10 +9409,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>143.4079146352456</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831379</v>
@@ -9476,13 +9476,13 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -9494,10 +9494,10 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>546.2009481132077</v>
@@ -9646,10 +9646,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N23" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831379</v>
@@ -9880,7 +9880,7 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L26" t="n">
-        <v>702.7389601124037</v>
+        <v>702.7389601124028</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
@@ -9956,22 +9956,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
+        <v>0</v>
+      </c>
+      <c r="L27" t="n">
+        <v>0</v>
+      </c>
+      <c r="M27" t="n">
+        <v>0</v>
+      </c>
+      <c r="N27" t="n">
+        <v>0</v>
+      </c>
+      <c r="O27" t="n">
+        <v>0</v>
+      </c>
+      <c r="P27" t="n">
         <v>661.3192390158824</v>
-      </c>
-      <c r="L27" t="n">
-        <v>0</v>
-      </c>
-      <c r="M27" t="n">
-        <v>0</v>
-      </c>
-      <c r="N27" t="n">
-        <v>0</v>
-      </c>
-      <c r="O27" t="n">
-        <v>0</v>
-      </c>
-      <c r="P27" t="n">
-        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>546.2009481132077</v>
@@ -10135,7 +10135,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>-9.094947017729282e-13</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10357,10 +10357,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N32" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831379</v>
@@ -10597,7 +10597,7 @@
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>314.2706063049986</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831379</v>
@@ -10609,7 +10609,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10822,7 +10822,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K38" t="n">
         <v>842.7780726850283</v>
@@ -10831,22 +10831,22 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N38" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>826.8607034446131</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11065,7 +11065,7 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L41" t="n">
-        <v>480.349027940466</v>
+        <v>309.4863362707125</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
@@ -11074,7 +11074,7 @@
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>916.2813960447884</v>
+        <v>916.2813960447888</v>
       </c>
       <c r="P41" t="n">
         <v>836.6766412458549</v>
@@ -11083,7 +11083,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11141,7 +11141,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>661.3192390158824</v>
+        <v>661.3192390158823</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11299,10 +11299,10 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
-        <v>712.6132095083485</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L44" t="n">
-        <v>916.2813960447884</v>
+        <v>40.69782849307467</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
@@ -11311,7 +11311,7 @@
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>916.2813960447888</v>
       </c>
       <c r="P44" t="n">
         <v>836.6766412458549</v>
@@ -11320,7 +11320,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R44" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11378,7 +11378,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>661.3192390158824</v>
+        <v>661.3192390158823</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -23257,7 +23257,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>27.88960744610034</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -23272,7 +23272,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -23317,16 +23317,16 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>48.85315558987827</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X11" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23433,7 +23433,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I13" t="n">
         <v>87.77334973307141</v>
@@ -23466,10 +23466,10 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S13" t="n">
-        <v>157.6489550149833</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T13" t="n">
-        <v>120.4463752142717</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23494,13 +23494,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>10.05629512938299</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -23509,10 +23509,10 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0.4126214791313976</v>
@@ -23554,13 +23554,13 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V14" t="n">
-        <v>163.4212026217408</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23667,7 +23667,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>139.592177662726</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>138.5031525665292</v>
@@ -23703,7 +23703,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23892,13 +23892,13 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>131.2385495991671</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -23907,7 +23907,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I19" t="n">
         <v>87.77334973307141</v>
@@ -23937,10 +23937,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -24141,13 +24141,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>139.5921776627262</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24183,10 +24183,10 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>111.4236523045816</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24381,7 +24381,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>138.5031525665292</v>
+        <v>120.4463752142721</v>
       </c>
       <c r="I25" t="n">
         <v>87.77334973307141</v>
@@ -24414,7 +24414,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S25" t="n">
-        <v>139.5921776627253</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24612,13 +24612,13 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>135.3636110865066</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I28" t="n">
         <v>87.77334973307141</v>
@@ -24648,10 +24648,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24852,13 +24852,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>139.5921776627262</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24894,10 +24894,10 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>90.22000922290115</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -25089,13 +25089,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>3.146865729424633</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25125,13 +25125,13 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T34" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>143.6516710866791</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25566,10 +25566,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>69.71657238081424</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25611,7 +25611,7 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>208.2197249473416</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25627,19 +25627,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C41" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>52.02554567871607</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -25648,7 +25648,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25684,19 +25684,19 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>242.4796102076115</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -25803,7 +25803,7 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>120.4463752142718</v>
+        <v>120.4463752142719</v>
       </c>
       <c r="I43" t="n">
         <v>87.77334973307141</v>
@@ -25864,16 +25864,16 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C44" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>9.079598144171598</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
@@ -25885,7 +25885,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25921,19 +25921,19 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U44" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>323.0592544856386</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -26037,10 +26037,10 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>69.71657238081404</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -26070,19 +26070,19 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>111.4236523045825</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>508842.9098438894</v>
+        <v>508842.9098438895</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>508842.9098438894</v>
+        <v>508842.9098438895</v>
       </c>
     </row>
     <row r="7">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>645935.4077208092</v>
+        <v>645935.4077208091</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>645935.4077208091</v>
+        <v>645935.407720809</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>645935.407720809</v>
+        <v>645935.4077208091</v>
       </c>
     </row>
     <row r="11">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>508842.9098438895</v>
+        <v>508842.9098438896</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>508842.9098438893</v>
+        <v>508842.9098438895</v>
       </c>
     </row>
   </sheetData>
@@ -26319,10 +26319,10 @@
         <v>308284.7089369848</v>
       </c>
       <c r="D2" t="n">
-        <v>308284.7089369849</v>
+        <v>308284.7089369848</v>
       </c>
       <c r="E2" t="n">
-        <v>238646.8557293379</v>
+        <v>238646.855729338</v>
       </c>
       <c r="F2" t="n">
         <v>238646.855729338</v>
@@ -26331,7 +26331,7 @@
         <v>302943.1108789775</v>
       </c>
       <c r="H2" t="n">
-        <v>302943.1108789776</v>
+        <v>302943.1108789775</v>
       </c>
       <c r="I2" t="n">
         <v>302943.1108789775</v>
@@ -26343,7 +26343,7 @@
         <v>302943.1108789775</v>
       </c>
       <c r="L2" t="n">
-        <v>302943.1108789776</v>
+        <v>302943.1108789775</v>
       </c>
       <c r="M2" t="n">
         <v>302943.1108789775</v>
@@ -26355,7 +26355,7 @@
         <v>238646.855729338</v>
       </c>
       <c r="P2" t="n">
-        <v>238646.8557293379</v>
+        <v>238646.855729338</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>307066.9702867177</v>
+        <v>307066.9702867178</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26380,7 +26380,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>99213.04363527209</v>
+        <v>99213.04363527198</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26417,19 +26417,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>90933.65223093437</v>
+        <v>90933.65223093433</v>
       </c>
       <c r="C4" t="n">
-        <v>90933.6522309344</v>
+        <v>90933.65223093433</v>
       </c>
       <c r="D4" t="n">
-        <v>90933.65223093439</v>
+        <v>90933.65223093433</v>
       </c>
       <c r="E4" t="n">
-        <v>21808.44558019528</v>
+        <v>21808.44558019529</v>
       </c>
       <c r="F4" t="n">
-        <v>21808.44558019528</v>
+        <v>21808.44558019529</v>
       </c>
       <c r="G4" t="n">
         <v>27684.07875020268</v>
@@ -26453,10 +26453,10 @@
         <v>27684.07875020268</v>
       </c>
       <c r="N4" t="n">
-        <v>27684.07875020269</v>
+        <v>27684.07875020268</v>
       </c>
       <c r="O4" t="n">
-        <v>21808.44558019528</v>
+        <v>21808.44558019529</v>
       </c>
       <c r="P4" t="n">
         <v>21808.44558019529</v>
@@ -26469,19 +26469,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>89337.50887952314</v>
+        <v>89337.50887952316</v>
       </c>
       <c r="C5" t="n">
-        <v>89337.50887952314</v>
+        <v>89337.50887952316</v>
       </c>
       <c r="D5" t="n">
-        <v>89337.50887952314</v>
+        <v>89337.50887952316</v>
       </c>
       <c r="E5" t="n">
-        <v>55709.90887952314</v>
+        <v>55709.90887952316</v>
       </c>
       <c r="F5" t="n">
-        <v>55709.90887952314</v>
+        <v>55709.90887952316</v>
       </c>
       <c r="G5" t="n">
         <v>77718.23860579252</v>
@@ -26508,10 +26508,10 @@
         <v>77718.23860579252</v>
       </c>
       <c r="O5" t="n">
-        <v>55709.90887952314</v>
+        <v>55709.90887952316</v>
       </c>
       <c r="P5" t="n">
-        <v>55709.90887952314</v>
+        <v>55709.90887952316</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-179053.4224601904</v>
+        <v>-179053.4224601905</v>
       </c>
       <c r="C6" t="n">
-        <v>128013.5478265272</v>
+        <v>128013.5478265273</v>
       </c>
       <c r="D6" t="n">
-        <v>128013.5478265274</v>
+        <v>128013.5478265273</v>
       </c>
       <c r="E6" t="n">
-        <v>161128.5012696195</v>
+        <v>160825.7279948037</v>
       </c>
       <c r="F6" t="n">
-        <v>161128.5012696195</v>
+        <v>160825.7279948037</v>
       </c>
       <c r="G6" t="n">
-        <v>98327.74988771023</v>
+        <v>98304.52554832769</v>
       </c>
       <c r="H6" t="n">
-        <v>197540.7935229824</v>
+        <v>197517.5691835997</v>
       </c>
       <c r="I6" t="n">
-        <v>197540.7935229823</v>
+        <v>197517.5691835997</v>
       </c>
       <c r="J6" t="n">
-        <v>-42198.73606376034</v>
+        <v>-42221.96040314304</v>
       </c>
       <c r="K6" t="n">
-        <v>197540.7935229823</v>
+        <v>197517.5691835997</v>
       </c>
       <c r="L6" t="n">
-        <v>197540.7935229824</v>
+        <v>197517.5691835997</v>
       </c>
       <c r="M6" t="n">
-        <v>197540.7935229823</v>
+        <v>197517.5691835996</v>
       </c>
       <c r="N6" t="n">
-        <v>197540.7935229824</v>
+        <v>197517.5691835998</v>
       </c>
       <c r="O6" t="n">
-        <v>161128.5012696196</v>
+        <v>160825.7279948037</v>
       </c>
       <c r="P6" t="n">
-        <v>161128.5012696195</v>
+        <v>160825.7279948037</v>
       </c>
     </row>
   </sheetData>
@@ -26789,19 +26789,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>916.2813960447886</v>
+        <v>916.2813960447888</v>
       </c>
       <c r="C4" t="n">
-        <v>916.2813960447885</v>
+        <v>916.2813960447888</v>
       </c>
       <c r="D4" t="n">
-        <v>916.2813960447885</v>
+        <v>916.2813960447888</v>
       </c>
       <c r="E4" t="n">
-        <v>916.2813960447885</v>
+        <v>916.2813960447888</v>
       </c>
       <c r="F4" t="n">
-        <v>916.2813960447885</v>
+        <v>916.2813960447888</v>
       </c>
       <c r="G4" t="n">
         <v>1278.260503384745</v>
@@ -26828,10 +26828,10 @@
         <v>1278.260503384745</v>
       </c>
       <c r="O4" t="n">
-        <v>916.2813960447885</v>
+        <v>916.2813960447888</v>
       </c>
       <c r="P4" t="n">
-        <v>916.2813960447885</v>
+        <v>916.2813960447888</v>
       </c>
     </row>
   </sheetData>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>916.2813960447886</v>
+        <v>916.2813960447888</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27026,7 +27026,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>361.9791073399568</v>
+        <v>361.9791073399565</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>916.2813960447886</v>
+        <v>916.2813960447887</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>916.2813960447886</v>
+        <v>916.2813960447888</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27272,7 +27272,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>361.9791073399568</v>
+        <v>361.9791073399565</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27378,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>284.6296301971989</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -27390,16 +27390,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>22.70959839105063</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H2" t="n">
         <v>286.2388530112159</v>
       </c>
       <c r="I2" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27429,10 +27429,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T2" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>256.6300796561533</v>
@@ -27536,7 +27536,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>161.9268490649754</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27587,10 +27587,10 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>229.4233680290247</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -27605,7 +27605,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="5">
@@ -27621,7 +27621,7 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>237.9178371335844</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -27630,13 +27630,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H5" t="n">
         <v>286.2388530112159</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,25 +27666,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T5" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="Y5" t="n">
-        <v>285.0422516763309</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27776,7 +27776,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -27830,7 +27830,7 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>197.1718905122107</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -27842,7 +27842,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>26.3357961106037</v>
       </c>
     </row>
     <row r="8">
@@ -27870,7 +27870,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27903,13 +27903,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V8" t="n">
         <v>358.9907805655117</v>
@@ -27918,7 +27918,7 @@
         <v>400</v>
       </c>
       <c r="X8" t="n">
-        <v>276.7235311101745</v>
+        <v>171.2811046875454</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28058,19 +28058,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T10" t="n">
-        <v>243.4206519573293</v>
+        <v>208.2197249473429</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>143.651671086679</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -34710,16 +34710,16 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>786.1165328681086</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>916.2813960447888</v>
       </c>
       <c r="P2" t="n">
-        <v>836.6766412458551</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q2" t="n">
-        <v>552.0189757157523</v>
+        <v>421.8541125390734</v>
       </c>
       <c r="R2" t="n">
         <v>170.8626916697544</v>
@@ -34774,13 +34774,13 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J3" t="n">
-        <v>327.8366918850631</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>687.6096162327044</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -34795,7 +34795,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0.03656536949847577</v>
+        <v>661.3192390158823</v>
       </c>
       <c r="Q3" t="n">
         <v>546.2009481132077</v>
@@ -34856,7 +34856,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K4" t="n">
         <v>277.5337924960966</v>
@@ -34938,22 +34938,22 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>712.6132095083485</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>786.1165328681095</v>
       </c>
       <c r="N5" t="n">
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>916.2813960447884</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>836.6766412458546</v>
+        <v>836.6766412458551</v>
       </c>
       <c r="Q5" t="n">
         <v>552.0189757157523</v>
@@ -35011,16 +35011,16 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>661.3192390158823</v>
       </c>
       <c r="L6" t="n">
-        <v>916.2813960447885</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -35029,13 +35029,13 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>645.4024255556853</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -35187,16 +35187,16 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>916.2813960447884</v>
+        <v>916.2813960447888</v>
       </c>
       <c r="P8" t="n">
-        <v>836.6766412458551</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q8" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R8" t="n">
-        <v>40.69782849307421</v>
+        <v>40.69782849307558</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35248,10 +35248,10 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -35260,22 +35260,22 @@
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>763.7587670651194</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>916.2813960447885</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>661.3192390158823</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35415,7 +35415,7 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>40.69782849307467</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
@@ -35424,16 +35424,16 @@
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>916.2813960447884</v>
+        <v>916.2813960447888</v>
       </c>
       <c r="P11" t="n">
         <v>836.6766412458551</v>
       </c>
       <c r="Q11" t="n">
-        <v>552.0189757157523</v>
+        <v>552.0189757157527</v>
       </c>
       <c r="R11" t="n">
-        <v>40.69782849307421</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35491,7 +35491,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -35506,7 +35506,7 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>661.3192390158823</v>
       </c>
       <c r="Q12" t="n">
         <v>546.2009481132077</v>
@@ -35652,7 +35652,7 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>40.69782849307467</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
@@ -35661,16 +35661,16 @@
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>916.2813960447884</v>
+        <v>916.2813960447888</v>
       </c>
       <c r="P14" t="n">
         <v>836.6766412458551</v>
       </c>
       <c r="Q14" t="n">
-        <v>552.0189757157523</v>
+        <v>552.0189757157527</v>
       </c>
       <c r="R14" t="n">
-        <v>40.69782849307421</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35728,7 +35728,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>661.3192390158824</v>
+        <v>661.3192390158823</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -35892,10 +35892,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
         <v>143.4079146352456</v>
-      </c>
-      <c r="N17" t="n">
-        <v>0</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831377</v>
@@ -36129,10 +36129,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>143.4079146352456</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831377</v>
@@ -36196,13 +36196,13 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -36214,10 +36214,10 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>546.2009481132077</v>
@@ -36278,13 +36278,13 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>87.45422743908057</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K22" t="n">
-        <v>277.5337924960963</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L22" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M22" t="n">
         <v>464.1251183645586</v>
@@ -36293,13 +36293,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O22" t="n">
-        <v>423.9083325512947</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P22" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q22" t="n">
-        <v>169.8916917821534</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36366,10 +36366,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N23" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831377</v>
@@ -36515,13 +36515,13 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>87.45422743908057</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K25" t="n">
-        <v>277.5337924960963</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L25" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M25" t="n">
         <v>464.1251183645586</v>
@@ -36530,13 +36530,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O25" t="n">
-        <v>423.9083325512947</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P25" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q25" t="n">
-        <v>169.8916917821534</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36600,7 +36600,7 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L26" t="n">
-        <v>702.7389601124037</v>
+        <v>702.7389601124028</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
@@ -36676,22 +36676,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
+        <v>0</v>
+      </c>
+      <c r="L27" t="n">
+        <v>0</v>
+      </c>
+      <c r="M27" t="n">
+        <v>0</v>
+      </c>
+      <c r="N27" t="n">
+        <v>0</v>
+      </c>
+      <c r="O27" t="n">
+        <v>0</v>
+      </c>
+      <c r="P27" t="n">
         <v>661.3192390158824</v>
-      </c>
-      <c r="L27" t="n">
-        <v>0</v>
-      </c>
-      <c r="M27" t="n">
-        <v>0</v>
-      </c>
-      <c r="N27" t="n">
-        <v>0</v>
-      </c>
-      <c r="O27" t="n">
-        <v>0</v>
-      </c>
-      <c r="P27" t="n">
-        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>546.2009481132077</v>
@@ -37077,10 +37077,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N32" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831377</v>
@@ -37317,7 +37317,7 @@
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>314.2706063049986</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831377</v>
@@ -37329,7 +37329,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37542,31 +37542,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K38" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L38" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N38" t="n">
-        <v>1137.102003471158</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>826.8607034446131</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,10 +37618,10 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>26.32694258632091</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J39" t="n">
-        <v>327.8366918850629</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
         <v>661.3192390158824</v>
@@ -37642,7 +37642,7 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>546.2009481132072</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R39" t="n">
         <v>118.3563415094341</v>
@@ -37700,13 +37700,13 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>87.45422743908057</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K40" t="n">
-        <v>277.5337924960963</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L40" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M40" t="n">
         <v>464.1251183645586</v>
@@ -37715,13 +37715,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O40" t="n">
-        <v>423.9083325512947</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P40" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q40" t="n">
-        <v>169.8916917821534</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37785,7 +37785,7 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L41" t="n">
-        <v>480.349027940466</v>
+        <v>309.4863362707125</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
@@ -37794,7 +37794,7 @@
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>916.2813960447884</v>
+        <v>916.2813960447888</v>
       </c>
       <c r="P41" t="n">
         <v>836.6766412458551</v>
@@ -37803,7 +37803,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>170.8626916697544</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37861,7 +37861,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>661.3192390158824</v>
+        <v>661.3192390158823</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -38019,10 +38019,10 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
-        <v>712.6132095083485</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L44" t="n">
-        <v>916.2813960447884</v>
+        <v>40.69782849307467</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
@@ -38031,16 +38031,16 @@
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>916.2813960447888</v>
       </c>
       <c r="P44" t="n">
-        <v>836.6766412458546</v>
+        <v>836.6766412458551</v>
       </c>
       <c r="Q44" t="n">
-        <v>552.0189757157523</v>
+        <v>552.0189757157527</v>
       </c>
       <c r="R44" t="n">
-        <v>170.8626916697544</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38098,7 +38098,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>661.3192390158824</v>
+        <v>661.3192390158823</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
